--- a/Results/Temperature_transects_results.xlsx
+++ b/Results/Temperature_transects_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,35 +370,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name_new</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ZONE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mean_1985_1989</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sum_1985_1989</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sd_1985_1989</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>mean_2000_2004</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sum_2000_2004</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>sd_2000_2004</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mean_2015_2019</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>sum_2015_2019</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sd_2015_2019</t>
         </is>
@@ -412,26 +427,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Pto de Navacerrada</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>1572.11</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74Nav</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D2">
-        <v>28.20816659927368</v>
-      </c>
-      <c r="E2">
-        <v>0.04375758523739401</v>
-      </c>
-      <c r="F2">
-        <v>28.23949998219808</v>
-      </c>
       <c r="G2">
-        <v>0.02176733124503315</v>
+        <v>44.89166672279437</v>
       </c>
       <c r="H2">
-        <v>28.2888334274292</v>
+        <v>0.4758253462401699</v>
       </c>
       <c r="I2">
-        <v>0.06855805903085581</v>
+        <v>46.32499970992406</v>
+      </c>
+      <c r="J2">
+        <v>0.3603336128088767</v>
+      </c>
+      <c r="K2">
+        <v>49.53333329637958</v>
+      </c>
+      <c r="L2">
+        <v>0.9450786789591593</v>
       </c>
     </row>
     <row r="3">
@@ -442,26 +470,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Valsaín II</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>1333.43</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55Val</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D3">
-        <v>28.3120000521342</v>
-      </c>
-      <c r="E3">
-        <v>0.04511411023711126</v>
-      </c>
-      <c r="F3">
-        <v>28.3431666692098</v>
-      </c>
       <c r="G3">
-        <v>0.02291597493637192</v>
+        <v>50.08333359907071</v>
       </c>
       <c r="H3">
-        <v>28.39983332951864</v>
+        <v>0.4895080199126144</v>
       </c>
       <c r="I3">
-        <v>0.05417117795028293</v>
+        <v>51.50833337008953</v>
+      </c>
+      <c r="J3">
+        <v>0.3696564858227666</v>
+      </c>
+      <c r="K3">
+        <v>55.10151523171049</v>
+      </c>
+      <c r="L3">
+        <v>0.7989378120410701</v>
       </c>
     </row>
     <row r="4">
@@ -472,26 +513,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Hoyocasero</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>1155.94</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7Hoyo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D4">
-        <v>28.41649993260702</v>
-      </c>
-      <c r="E4">
-        <v>0.04985893996554094</v>
-      </c>
-      <c r="F4">
-        <v>28.43799994786581</v>
-      </c>
       <c r="G4">
-        <v>0.01943277330687428</v>
+        <v>55.29166642328103</v>
       </c>
       <c r="H4">
-        <v>28.50183331171672</v>
+        <v>0.5279020419150359</v>
       </c>
       <c r="I4">
-        <v>0.05194280105808784</v>
+        <v>56.25833324591319</v>
+      </c>
+      <c r="J4">
+        <v>0.359803152611075</v>
+      </c>
+      <c r="K4">
+        <v>60.23106002085137</v>
+      </c>
+      <c r="L4">
+        <v>0.7024549090214567</v>
       </c>
     </row>
     <row r="5">
@@ -502,26 +556,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Navacepeda de Tormes</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>1432.48</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10Navac</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D5">
-        <v>28.24500007629395</v>
-      </c>
-      <c r="E5">
-        <v>0.05046650315009649</v>
-      </c>
-      <c r="F5">
-        <v>28.26283340454102</v>
-      </c>
       <c r="G5">
-        <v>0.01913584115593099</v>
+        <v>46.76666683703661</v>
       </c>
       <c r="H5">
-        <v>28.31483329137166</v>
+        <v>0.4967813809869548</v>
       </c>
       <c r="I5">
-        <v>0.06124956325926854</v>
+        <v>47.53333346297344</v>
+      </c>
+      <c r="J5">
+        <v>0.3649295449625468</v>
+      </c>
+      <c r="K5">
+        <v>50.82348497073646</v>
+      </c>
+      <c r="L5">
+        <v>0.79633817037402</v>
       </c>
     </row>
     <row r="6">
@@ -532,26 +599,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Navalguijo</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>1250.05</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5Ngui</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D6">
-        <v>28.39516668319702</v>
-      </c>
-      <c r="E6">
-        <v>0.05213284001745928</v>
-      </c>
-      <c r="F6">
-        <v>28.410666624705</v>
-      </c>
       <c r="G6">
-        <v>0.01824211352619022</v>
+        <v>54.29166666666667</v>
       </c>
       <c r="H6">
-        <v>28.46849997838338</v>
+        <v>0.5056280290585402</v>
       </c>
       <c r="I6">
-        <v>0.05508644547863911</v>
+        <v>54.92500001688799</v>
+      </c>
+      <c r="J6">
+        <v>0.3374433695289634</v>
+      </c>
+      <c r="K6">
+        <v>58.5083335276806</v>
+      </c>
+      <c r="L6">
+        <v>0.6958558135333091</v>
       </c>
     </row>
     <row r="7">
@@ -562,26 +642,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Navalperal de Tormes</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1316.04</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11Naval</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D7">
-        <v>28.29399995803833</v>
-      </c>
-      <c r="E7">
-        <v>0.05124971995011769</v>
-      </c>
-      <c r="F7">
-        <v>28.31166661580404</v>
-      </c>
       <c r="G7">
-        <v>0.01838062357233008</v>
+        <v>49.21666688472033</v>
       </c>
       <c r="H7">
-        <v>28.36700010299683</v>
+        <v>0.5010891535756762</v>
       </c>
       <c r="I7">
-        <v>0.05864984158320678</v>
+        <v>49.96666667455187</v>
+      </c>
+      <c r="J7">
+        <v>0.3576737606383336</v>
+      </c>
+      <c r="K7">
+        <v>53.4386367057309</v>
+      </c>
+      <c r="L7">
+        <v>0.7561523421871378</v>
       </c>
     </row>
     <row r="8">
@@ -592,26 +685,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Navarredonda de Gredos</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1498.21</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13Navar</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D8">
-        <v>28.16516663233439</v>
-      </c>
-      <c r="E8">
-        <v>0.04961101286212852</v>
-      </c>
-      <c r="F8">
-        <v>28.18533344268799</v>
-      </c>
       <c r="G8">
-        <v>0.01863012983153853</v>
+        <v>42.78333315501611</v>
       </c>
       <c r="H8">
-        <v>28.22950003941854</v>
+        <v>0.4878879633998017</v>
       </c>
       <c r="I8">
-        <v>0.07203540306997805</v>
+        <v>43.666666772527</v>
+      </c>
+      <c r="J8">
+        <v>0.3531112020822858</v>
+      </c>
+      <c r="K8">
+        <v>46.57045435950612</v>
+      </c>
+      <c r="L8">
+        <v>0.9286264767490172</v>
       </c>
     </row>
     <row r="9">
@@ -622,26 +728,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Puerto de la Peña Negra</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>1922.51</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15Pneg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D9">
-        <v>27.93950001398722</v>
-      </c>
-      <c r="E9">
-        <v>0.04908393199571279</v>
-      </c>
-      <c r="F9">
-        <v>27.95550003051758</v>
-      </c>
       <c r="G9">
-        <v>0.01899014726153233</v>
+        <v>31.47499970439822</v>
       </c>
       <c r="H9">
-        <v>27.98449999491374</v>
+        <v>0.4927459473175773</v>
       </c>
       <c r="I9">
-        <v>0.09642489842931347</v>
+        <v>32.15833332793167</v>
+      </c>
+      <c r="J9">
+        <v>0.3727432329125389</v>
+      </c>
+      <c r="K9">
+        <v>34.2810604028178</v>
+      </c>
+      <c r="L9">
+        <v>1.180126797623277</v>
       </c>
     </row>
     <row r="10">
@@ -652,26 +771,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>La Plataforma de Gredos</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1860.07</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14Plat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D10">
-        <v>27.95899991989136</v>
-      </c>
-      <c r="E10">
-        <v>0.04936188144486502</v>
-      </c>
-      <c r="F10">
-        <v>27.97483332951864</v>
-      </c>
       <c r="G10">
-        <v>0.01703147399689312</v>
+        <v>32.48333343025297</v>
       </c>
       <c r="H10">
-        <v>27.99866676330566</v>
+        <v>0.4746929045262392</v>
       </c>
       <c r="I10">
-        <v>0.1096087332735778</v>
+        <v>33.15000019129366</v>
+      </c>
+      <c r="J10">
+        <v>0.3453359535369213</v>
+      </c>
+      <c r="K10">
+        <v>34.99318194773161</v>
+      </c>
+      <c r="L10">
+        <v>1.321545830638325</v>
       </c>
     </row>
     <row r="11">
@@ -682,26 +814,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Puerto del Pico</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>1400.49</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12Pico</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D11">
-        <v>28.30300013224284</v>
-      </c>
-      <c r="E11">
-        <v>0.05066430364409275</v>
-      </c>
-      <c r="F11">
-        <v>28.32366666793823</v>
-      </c>
       <c r="G11">
-        <v>0.01888017008504147</v>
+        <v>49.66666637019564</v>
       </c>
       <c r="H11">
-        <v>28.37316668828328</v>
+        <v>0.4956406607228057</v>
       </c>
       <c r="I11">
-        <v>0.0624537543805307</v>
+        <v>50.58333344850689</v>
+      </c>
+      <c r="J11">
+        <v>0.3474610183048486</v>
+      </c>
+      <c r="K11">
+        <v>53.78106045632651</v>
+      </c>
+      <c r="L11">
+        <v>0.8430889661205501</v>
       </c>
     </row>
     <row r="12">
@@ -712,26 +857,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>El Hornillo</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>781.46</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3Horn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D12">
-        <v>28.63450005849202</v>
-      </c>
-      <c r="E12">
-        <v>0.05526312758339079</v>
-      </c>
-      <c r="F12">
-        <v>28.65549999872843</v>
-      </c>
       <c r="G12">
-        <v>0.01800468101771383</v>
+        <v>66.26666633288066</v>
       </c>
       <c r="H12">
-        <v>28.72299998601278</v>
+        <v>0.5453591605623736</v>
       </c>
       <c r="I12">
-        <v>0.05736884890640263</v>
+        <v>67.16666654745738</v>
+      </c>
+      <c r="J12">
+        <v>0.3323945028349608</v>
+      </c>
+      <c r="K12">
+        <v>71.31439364678931</v>
+      </c>
+      <c r="L12">
+        <v>0.6663273789774303</v>
       </c>
     </row>
     <row r="13">
@@ -742,26 +900,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Candeleda</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>685.17</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2Cand</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D13">
-        <v>28.67233330408732</v>
-      </c>
-      <c r="E13">
-        <v>0.05718026639943201</v>
-      </c>
-      <c r="F13">
-        <v>28.69016669591268</v>
-      </c>
       <c r="G13">
-        <v>0.01857230546102175</v>
+        <v>68.14166671037674</v>
       </c>
       <c r="H13">
-        <v>28.7523333867391</v>
+        <v>0.5730825721042728</v>
       </c>
       <c r="I13">
-        <v>0.04947431381793122</v>
+        <v>68.87499992052713</v>
+      </c>
+      <c r="J13">
+        <v>0.3383477155736309</v>
+      </c>
+      <c r="K13">
+        <v>72.78106077873346</v>
+      </c>
+      <c r="L13">
+        <v>0.6345536349833347</v>
       </c>
     </row>
     <row r="14">
@@ -772,26 +943,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Cerro del Aguila</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>397.52</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1Agui</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D14">
-        <v>28.93866682052612</v>
-      </c>
-      <c r="E14">
-        <v>0.06121917000232981</v>
-      </c>
-      <c r="F14">
-        <v>28.95866657892863</v>
-      </c>
       <c r="G14">
-        <v>0.02086337535381121</v>
+        <v>81.45000008742014</v>
       </c>
       <c r="H14">
-        <v>29.03033332824707</v>
+        <v>0.632219371260468</v>
       </c>
       <c r="I14">
-        <v>0.06402202565700368</v>
+        <v>82.28333298365276</v>
+      </c>
+      <c r="J14">
+        <v>0.3452756779899969</v>
+      </c>
+      <c r="K14">
+        <v>86.74924206372464</v>
+      </c>
+      <c r="L14">
+        <v>0.676427254505967</v>
       </c>
     </row>
     <row r="15">
@@ -802,26 +986,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Collado de la Centenera</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1344.84</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4Cent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D15">
-        <v>28.32700001398722</v>
-      </c>
-      <c r="E15">
-        <v>0.05154757049930252</v>
-      </c>
-      <c r="F15">
-        <v>28.34800004959106</v>
-      </c>
       <c r="G15">
-        <v>0.01790801584762503</v>
+        <v>50.88333330551783</v>
       </c>
       <c r="H15">
-        <v>28.39799982706706</v>
+        <v>0.4995624058557152</v>
       </c>
       <c r="I15">
-        <v>0.06110556671802776</v>
+        <v>51.80833335965872</v>
+      </c>
+      <c r="J15">
+        <v>0.3328955664831668</v>
+      </c>
+      <c r="K15">
+        <v>55.02651524498607</v>
+      </c>
+      <c r="L15">
+        <v>0.8260812066866157</v>
       </c>
     </row>
     <row r="16">
@@ -832,26 +1029,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Mingo Fernando</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>1293.63</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9Mfer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D16">
-        <v>28.41083339055379</v>
-      </c>
-      <c r="E16">
-        <v>0.05240401477804813</v>
-      </c>
-      <c r="F16">
-        <v>28.43050009409587</v>
-      </c>
       <c r="G16">
-        <v>0.01762457346218108</v>
+        <v>55.07500013709068</v>
       </c>
       <c r="H16">
-        <v>28.48450002670288</v>
+        <v>0.5117847405124354</v>
       </c>
       <c r="I16">
-        <v>0.0554419668139394</v>
+        <v>55.92500020066898</v>
+      </c>
+      <c r="J16">
+        <v>0.3338224969706998</v>
+      </c>
+      <c r="K16">
+        <v>59.34848467689572</v>
+      </c>
+      <c r="L16">
+        <v>0.7431156077993467</v>
       </c>
     </row>
     <row r="17">
@@ -862,26 +1072,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Soto de El Arenal</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1229.8</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6Aren</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D17">
-        <v>28.33250001271566</v>
-      </c>
-      <c r="E17">
-        <v>0.05146131653604044</v>
-      </c>
-      <c r="F17">
-        <v>28.35416679382324</v>
-      </c>
       <c r="G17">
-        <v>0.01750006562242328</v>
+        <v>51.15833331892888</v>
       </c>
       <c r="H17">
-        <v>28.40449991226196</v>
+        <v>0.5027148946897218</v>
       </c>
       <c r="I17">
-        <v>0.05910383043903809</v>
+        <v>52.11666642626127</v>
+      </c>
+      <c r="J17">
+        <v>0.336206398030093</v>
+      </c>
+      <c r="K17">
+        <v>55.34393940459599</v>
+      </c>
+      <c r="L17">
+        <v>0.7949893243981613</v>
       </c>
     </row>
     <row r="18">
@@ -892,26 +1115,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Arroyo Pto. Morcuera</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1729.77</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91Arr</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D18">
-        <v>27.99049997329712</v>
-      </c>
-      <c r="E18">
-        <v>0.04293323338451865</v>
-      </c>
-      <c r="F18">
-        <v>28.02300001780192</v>
-      </c>
       <c r="G18">
-        <v>0.02057007014572482</v>
+        <v>33.99999990624686</v>
       </c>
       <c r="H18">
-        <v>28.05699996948242</v>
+        <v>0.4826503897691934</v>
       </c>
       <c r="I18">
-        <v>0.1056996596531236</v>
+        <v>35.50833354393642</v>
+      </c>
+      <c r="J18">
+        <v>0.3562146708540352</v>
+      </c>
+      <c r="K18">
+        <v>37.91212138192108</v>
+      </c>
+      <c r="L18">
+        <v>1.313577951543227</v>
       </c>
     </row>
     <row r="19">
@@ -922,26 +1158,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Moralzarzal</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>928.38</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14Mor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D19">
-        <v>28.61399997075399</v>
-      </c>
-      <c r="E19">
-        <v>0.04401077857864005</v>
-      </c>
-      <c r="F19">
-        <v>28.64316660563151</v>
-      </c>
       <c r="G19">
-        <v>0.02220804550958168</v>
+        <v>65.15833306312561</v>
       </c>
       <c r="H19">
-        <v>28.7175001780192</v>
+        <v>0.5080053440822603</v>
       </c>
       <c r="I19">
-        <v>0.04073113764355348</v>
+        <v>66.49999972184499</v>
+      </c>
+      <c r="J19">
+        <v>0.3775836883779877</v>
+      </c>
+      <c r="K19">
+        <v>71.05757587425636</v>
+      </c>
+      <c r="L19">
+        <v>0.6250733618468204</v>
       </c>
     </row>
     <row r="20">
@@ -952,26 +1201,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Puerto de Fuenfría</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>1800.24</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95Fue</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D20">
-        <v>28.02633339564006</v>
-      </c>
-      <c r="E20">
-        <v>0.04320322742430523</v>
-      </c>
-      <c r="F20">
-        <v>28.0549999554952</v>
-      </c>
       <c r="G20">
-        <v>0.0206575872207795</v>
+        <v>35.79166677594185</v>
       </c>
       <c r="H20">
-        <v>28.09449996948242</v>
+        <v>0.4678927153909356</v>
       </c>
       <c r="I20">
-        <v>0.09226990328790871</v>
+        <v>37.11666682207336</v>
+      </c>
+      <c r="J20">
+        <v>0.351504799115868</v>
+      </c>
+      <c r="K20">
+        <v>39.79545466963089</v>
+      </c>
+      <c r="L20">
+        <v>1.165973692406142</v>
       </c>
     </row>
     <row r="21">
@@ -982,26 +1244,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Valsaín I</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>1433.39</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62Val</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D21">
-        <v>28.22633336385091</v>
-      </c>
-      <c r="E21">
-        <v>0.04427118514611333</v>
-      </c>
-      <c r="F21">
-        <v>28.25700000127157</v>
-      </c>
       <c r="G21">
-        <v>0.02145415810533403</v>
+        <v>45.79166614760955</v>
       </c>
       <c r="H21">
-        <v>28.30766665140788</v>
+        <v>0.480559585103594</v>
       </c>
       <c r="I21">
-        <v>0.06657655578906473</v>
+        <v>47.20833326876164</v>
+      </c>
+      <c r="J21">
+        <v>0.3592526341639393</v>
+      </c>
+      <c r="K21">
+        <v>50.4795454968275</v>
+      </c>
+      <c r="L21">
+        <v>0.9215958337071916</v>
       </c>
     </row>
     <row r="22">
@@ -1012,26 +1287,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>La Granja - Pto Navacerrada</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>1192.58</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40Gra</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D22">
-        <v>28.4108333269755</v>
-      </c>
-      <c r="E22">
-        <v>0.04605624516152142</v>
-      </c>
-      <c r="F22">
-        <v>28.4440000851949</v>
-      </c>
       <c r="G22">
-        <v>0.02465311008902622</v>
+        <v>55.02500001589457</v>
       </c>
       <c r="H22">
-        <v>28.50616668065389</v>
+        <v>0.4977589079796341</v>
       </c>
       <c r="I22">
-        <v>0.04558112401684385</v>
+        <v>56.54166665673256</v>
+      </c>
+      <c r="J22">
+        <v>0.3806062995101777</v>
+      </c>
+      <c r="K22">
+        <v>60.42575739278938</v>
+      </c>
+      <c r="L22">
+        <v>0.6910851323975321</v>
       </c>
     </row>
     <row r="23">
@@ -1042,26 +1330,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Embalse del Pontón</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1126.31</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32Emb</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D23">
-        <v>28.46083335876465</v>
-      </c>
-      <c r="E23">
-        <v>0.04737924683825728</v>
-      </c>
-      <c r="F23">
-        <v>28.49466667175293</v>
-      </c>
       <c r="G23">
-        <v>0.02477404488042826</v>
+        <v>57.51666676998138</v>
       </c>
       <c r="H23">
-        <v>28.55916662216187</v>
+        <v>0.5126727236467268</v>
       </c>
       <c r="I23">
-        <v>0.04296728886165206</v>
+        <v>59.06666685144107</v>
+      </c>
+      <c r="J23">
+        <v>0.3792170389023569</v>
+      </c>
+      <c r="K23">
+        <v>63.08409075664751</v>
+      </c>
+      <c r="L23">
+        <v>0.6465209448607865</v>
       </c>
     </row>
     <row r="24">
@@ -1072,26 +1373,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>La Fonda Real</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>1314.66</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52Fon</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D24">
-        <v>28.3325000445048</v>
-      </c>
-      <c r="E24">
-        <v>0.04274028057746592</v>
-      </c>
-      <c r="F24">
-        <v>28.3613333384196</v>
-      </c>
       <c r="G24">
-        <v>0.02138113751994722</v>
+        <v>51.10000027467807</v>
       </c>
       <c r="H24">
-        <v>28.42166659037272</v>
+        <v>0.470873842611464</v>
       </c>
       <c r="I24">
-        <v>0.05413147423798113</v>
+        <v>52.42500023047129</v>
+      </c>
+      <c r="J24">
+        <v>0.368668640471548</v>
+      </c>
+      <c r="K24">
+        <v>56.19545459295765</v>
+      </c>
+      <c r="L24">
+        <v>0.8032103268448116</v>
       </c>
     </row>
     <row r="25">
@@ -1102,26 +1416,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Las Vueltas de la Barranca</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>1437.52</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63Vue</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D25">
-        <v>28.25500005086263</v>
-      </c>
-      <c r="E25">
-        <v>0.04301567172939212</v>
-      </c>
-      <c r="F25">
-        <v>28.28466672897339</v>
-      </c>
       <c r="G25">
-        <v>0.02113619641504021</v>
+        <v>47.225000020427</v>
       </c>
       <c r="H25">
-        <v>28.33999993006388</v>
+        <v>0.4764087841858625</v>
       </c>
       <c r="I25">
-        <v>0.06088190232316539</v>
+        <v>48.59999992698431</v>
+      </c>
+      <c r="J25">
+        <v>0.3625048871437386</v>
+      </c>
+      <c r="K25">
+        <v>52.10681828562961</v>
+      </c>
+      <c r="L25">
+        <v>0.8774315839110742</v>
       </c>
     </row>
     <row r="26">
@@ -1132,26 +1459,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>La Bola del Mundo</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>2252.38</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>122Bol</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D26">
-        <v>27.77733335494995</v>
-      </c>
-      <c r="E26">
-        <v>0.04119059768792279</v>
-      </c>
-      <c r="F26">
-        <v>27.8061666170756</v>
-      </c>
       <c r="G26">
-        <v>0.02013495147543114</v>
+        <v>23.34999989469846</v>
       </c>
       <c r="H26">
-        <v>27.82716658910116</v>
+        <v>0.4493281811497384</v>
       </c>
       <c r="I26">
-        <v>0.1376887594945579</v>
+        <v>24.68333329260349</v>
+      </c>
+      <c r="J26">
+        <v>0.3514158321793197</v>
+      </c>
+      <c r="K26">
+        <v>26.39696976373141</v>
+      </c>
+      <c r="L26">
+        <v>1.608815601512773</v>
       </c>
     </row>
     <row r="27">
@@ -1162,26 +1502,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Fuente de la Campanilla</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>1650.41</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81Fue</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D27">
-        <v>28.07216663360596</v>
-      </c>
-      <c r="E27">
-        <v>0.04224018624256789</v>
-      </c>
-      <c r="F27">
-        <v>28.10166670481364</v>
-      </c>
       <c r="G27">
-        <v>0.02135193442571828</v>
+        <v>38.08333310578018</v>
       </c>
       <c r="H27">
-        <v>28.14533338546753</v>
+        <v>0.4616170179158758</v>
       </c>
       <c r="I27">
-        <v>0.08652161314357884</v>
+        <v>39.45000016192595</v>
+      </c>
+      <c r="J27">
+        <v>0.3587885849057497</v>
+      </c>
+      <c r="K27">
+        <v>42.34469719730656</v>
+      </c>
+      <c r="L27">
+        <v>1.116180666980954</v>
       </c>
     </row>
     <row r="28">
@@ -1192,26 +1545,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Cerro Piñonero</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>1488.99</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68Pin</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D28">
-        <v>28.2414999961853</v>
-      </c>
-      <c r="E28">
-        <v>0.04362237954747696</v>
-      </c>
-      <c r="F28">
-        <v>28.2678334236145</v>
-      </c>
       <c r="G28">
-        <v>0.0212099091571886</v>
+        <v>46.5416669761762</v>
       </c>
       <c r="H28">
-        <v>28.31933339436849</v>
+        <v>0.4852332742990242</v>
       </c>
       <c r="I28">
-        <v>0.06729254815934785</v>
+        <v>47.7500002409021</v>
+      </c>
+      <c r="J28">
+        <v>0.365813400058194</v>
+      </c>
+      <c r="K28">
+        <v>51.06666661031319</v>
+      </c>
+      <c r="L28">
+        <v>0.9342369166011422</v>
       </c>
     </row>
     <row r="29">
@@ -1222,26 +1588,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Mirador-Cabeza Lijar</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>1800.05</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96Cab</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D29">
-        <v>28.09950002034505</v>
-      </c>
-      <c r="E29">
-        <v>0.0432073717383498</v>
-      </c>
-      <c r="F29">
-        <v>28.12449995676677</v>
-      </c>
       <c r="G29">
-        <v>0.02206050747632196</v>
+        <v>39.43333304176728</v>
       </c>
       <c r="H29">
-        <v>28.16666660308838</v>
+        <v>0.4734111117602822</v>
       </c>
       <c r="I29">
-        <v>0.089370936454975</v>
+        <v>40.59166640633097</v>
+      </c>
+      <c r="J29">
+        <v>0.3692804446841389</v>
+      </c>
+      <c r="K29">
+        <v>43.41287843928193</v>
+      </c>
+      <c r="L29">
+        <v>1.140345551070521</v>
       </c>
     </row>
     <row r="30">
@@ -1252,26 +1631,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Collado de la Mina</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>1707.94</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89Col</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D30">
-        <v>28.09950002034505</v>
-      </c>
-      <c r="E30">
-        <v>0.0432073717383498</v>
-      </c>
-      <c r="F30">
-        <v>28.12449995676677</v>
-      </c>
       <c r="G30">
-        <v>0.02206050747632196</v>
+        <v>39.43333304176728</v>
       </c>
       <c r="H30">
-        <v>28.16666660308838</v>
+        <v>0.4734111117602822</v>
       </c>
       <c r="I30">
-        <v>0.089370936454975</v>
+        <v>40.59166640633097</v>
+      </c>
+      <c r="J30">
+        <v>0.3692804446841389</v>
+      </c>
+      <c r="K30">
+        <v>43.41287843928193</v>
+      </c>
+      <c r="L30">
+        <v>1.140345551070521</v>
       </c>
     </row>
     <row r="31">
@@ -1282,26 +1674,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Rascafría/Raso de la Cierva</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1416.29</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61Ras</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D31">
-        <v>28.22083333333334</v>
-      </c>
-      <c r="E31">
-        <v>0.04716632162886521</v>
-      </c>
-      <c r="F31">
-        <v>28.25666659673055</v>
-      </c>
       <c r="G31">
-        <v>0.02258464456620399</v>
+        <v>45.5249998519818</v>
       </c>
       <c r="H31">
-        <v>28.30949996312459</v>
+        <v>0.5101265210964341</v>
       </c>
       <c r="I31">
-        <v>0.05940568590116814</v>
+        <v>47.17500000447035</v>
+      </c>
+      <c r="J31">
+        <v>0.3645488637274491</v>
+      </c>
+      <c r="K31">
+        <v>50.5719698865644</v>
+      </c>
+      <c r="L31">
+        <v>0.8591240447448425</v>
       </c>
     </row>
     <row r="32">
@@ -1312,26 +1717,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Raso de la Cierva</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1696.99</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88Ras</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D32">
-        <v>28.10116659800212</v>
-      </c>
-      <c r="E32">
-        <v>0.04530600665113459</v>
-      </c>
-      <c r="F32">
-        <v>28.13683341344197</v>
-      </c>
       <c r="G32">
-        <v>0.02175787953791269</v>
+        <v>39.54166659464439</v>
       </c>
       <c r="H32">
-        <v>28.18049999872843</v>
+        <v>0.4911014113390277</v>
       </c>
       <c r="I32">
-        <v>0.07535695518386905</v>
+        <v>41.19166669653107</v>
+      </c>
+      <c r="J32">
+        <v>0.3570032992287077</v>
+      </c>
+      <c r="K32">
+        <v>44.10227254955944</v>
+      </c>
+      <c r="L32">
+        <v>1.012952255515962</v>
       </c>
     </row>
     <row r="33">
@@ -1342,26 +1760,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Las Calderuelas</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>1879.29</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>102Cal</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D33">
-        <v>27.93166672388713</v>
-      </c>
-      <c r="E33">
-        <v>0.04579918623971547</v>
-      </c>
-      <c r="F33">
-        <v>27.96499999364217</v>
-      </c>
       <c r="G33">
-        <v>0.02178655035798199</v>
+        <v>31.06666658911854</v>
       </c>
       <c r="H33">
-        <v>27.99716672897339</v>
+        <v>0.4895647456263645</v>
       </c>
       <c r="I33">
-        <v>0.103830439329856</v>
+        <v>32.60000005364418</v>
+      </c>
+      <c r="J33">
+        <v>0.359233370806067</v>
+      </c>
+      <c r="K33">
+        <v>34.91060626710003</v>
+      </c>
+      <c r="L33">
+        <v>1.283241549381603</v>
       </c>
     </row>
     <row r="34">
@@ -1372,26 +1803,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>La Flecha</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>2037.89</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>112Fle</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D34">
-        <v>27.88083333969116</v>
-      </c>
-      <c r="E34">
-        <v>0.04579165954090671</v>
-      </c>
-      <c r="F34">
-        <v>27.91400003433228</v>
-      </c>
       <c r="G34">
-        <v>0.02180570818937146</v>
+        <v>28.5249998504296</v>
       </c>
       <c r="H34">
-        <v>27.94166663487752</v>
+        <v>0.4906982496636498</v>
       </c>
       <c r="I34">
-        <v>0.1131371322180531</v>
+        <v>30.05000011933347</v>
+      </c>
+      <c r="J34">
+        <v>0.3601408343774598</v>
+      </c>
+      <c r="K34">
+        <v>32.13409108214194</v>
+      </c>
+      <c r="L34">
+        <v>1.373948511329177</v>
       </c>
     </row>
     <row r="35">
@@ -1402,26 +1846,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Ermita de Santa Ana</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>1208.42</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41Erm</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D35">
-        <v>28.3863333384196</v>
-      </c>
-      <c r="E35">
-        <v>0.04648254940338013</v>
-      </c>
-      <c r="F35">
-        <v>28.42299995422363</v>
-      </c>
       <c r="G35">
-        <v>0.02230312960692764</v>
+        <v>53.80000025033951</v>
       </c>
       <c r="H35">
-        <v>28.48433348337809</v>
+        <v>0.5162431109790969</v>
       </c>
       <c r="I35">
-        <v>0.0455004448181035</v>
+        <v>55.48333324988683</v>
+      </c>
+      <c r="J35">
+        <v>0.3644630008026101</v>
+      </c>
+      <c r="K35">
+        <v>59.33712099537705</v>
+      </c>
+      <c r="L35">
+        <v>0.7191111043771689</v>
       </c>
     </row>
     <row r="36">
@@ -1432,26 +1889,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Collado Najarra</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>2000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>108Naj</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D36">
-        <v>27.96399993896484</v>
-      </c>
-      <c r="E36">
-        <v>0.04338707373723413</v>
-      </c>
-      <c r="F36">
-        <v>27.99583339691162</v>
-      </c>
       <c r="G36">
-        <v>0.01995650402952444</v>
+        <v>32.68333361794552</v>
       </c>
       <c r="H36">
-        <v>28.02950007120768</v>
+        <v>0.4835703446751472</v>
       </c>
       <c r="I36">
-        <v>0.1080983902756067</v>
+        <v>34.1583332112059</v>
+      </c>
+      <c r="J36">
+        <v>0.3489767282759508</v>
+      </c>
+      <c r="K36">
+        <v>36.54015133981452</v>
+      </c>
+      <c r="L36">
+        <v>1.332583995725258</v>
       </c>
     </row>
     <row r="37">
@@ -1462,26 +1932,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Collado Valdemartín</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>2153.63</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>117Val</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D37">
-        <v>27.83916664123535</v>
-      </c>
-      <c r="E37">
-        <v>0.0410326458204661</v>
-      </c>
-      <c r="F37">
-        <v>27.86866668065389</v>
-      </c>
       <c r="G37">
-        <v>0.01937918845458842</v>
+        <v>26.44166641123593</v>
       </c>
       <c r="H37">
-        <v>27.89366677602132</v>
+        <v>0.4519095381812321</v>
       </c>
       <c r="I37">
-        <v>0.1278108830785516</v>
+        <v>27.80833350867033</v>
+      </c>
+      <c r="J37">
+        <v>0.3460390740836182</v>
+      </c>
+      <c r="K37">
+        <v>29.7318183220923</v>
+      </c>
+      <c r="L37">
+        <v>1.513328788737081</v>
       </c>
     </row>
     <row r="38">
@@ -1492,26 +1975,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Arroyo de la Angostura II</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>1386.2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>58Ang</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D38">
-        <v>28.20500001907349</v>
-      </c>
-      <c r="E38">
-        <v>0.04442924893761017</v>
-      </c>
-      <c r="F38">
-        <v>28.2384999593099</v>
-      </c>
       <c r="G38">
-        <v>0.02127360554994911</v>
+        <v>44.73333339144786</v>
       </c>
       <c r="H38">
-        <v>28.28833338419596</v>
+        <v>0.4905920129791502</v>
       </c>
       <c r="I38">
-        <v>0.06704322217979755</v>
+        <v>46.27500002582868</v>
+      </c>
+      <c r="J38">
+        <v>0.3600058876753761</v>
+      </c>
+      <c r="K38">
+        <v>49.5151514372873</v>
+      </c>
+      <c r="L38">
+        <v>0.9325577884823281</v>
       </c>
     </row>
     <row r="39">
@@ -1522,26 +2018,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Pista Mantenimiento Valdesquí</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>2035.69</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>110Val</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D39">
-        <v>27.90266669591268</v>
-      </c>
-      <c r="E39">
-        <v>0.04182640815514021</v>
-      </c>
-      <c r="F39">
-        <v>27.93299999237061</v>
-      </c>
       <c r="G39">
-        <v>0.02099616054539528</v>
+        <v>29.60833342870076</v>
       </c>
       <c r="H39">
-        <v>27.96133327484131</v>
+        <v>0.4609997843887038</v>
       </c>
       <c r="I39">
-        <v>0.1170894750703847</v>
+        <v>31.01666642383983</v>
+      </c>
+      <c r="J39">
+        <v>0.3580715806893535</v>
+      </c>
+      <c r="K39">
+        <v>33.11893920645569</v>
+      </c>
+      <c r="L39">
+        <v>1.413183464003717</v>
       </c>
     </row>
     <row r="40">
@@ -1552,26 +2061,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Pradera de Majalasna</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>1843.03</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97Maj</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D40">
-        <v>27.98666671117147</v>
-      </c>
-      <c r="E40">
-        <v>0.04195313150411919</v>
-      </c>
-      <c r="F40">
-        <v>28.01499993006388</v>
-      </c>
       <c r="G40">
-        <v>0.02073323291476167</v>
+        <v>33.79999973531812</v>
       </c>
       <c r="H40">
-        <v>28.05100005467733</v>
+        <v>0.4522475261894901</v>
       </c>
       <c r="I40">
-        <v>0.09905718210796342</v>
+        <v>35.11666671279818</v>
+      </c>
+      <c r="J40">
+        <v>0.3559708235734882</v>
+      </c>
+      <c r="K40">
+        <v>37.61212131228636</v>
+      </c>
+      <c r="L40">
+        <v>1.23481114746643</v>
       </c>
     </row>
     <row r="41">
@@ -1582,26 +2104,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Alto del León</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>1534.69</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71Leo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D41">
-        <v>28.2254999478658</v>
-      </c>
-      <c r="E41">
-        <v>0.04396811136401701</v>
-      </c>
-      <c r="F41">
-        <v>28.25266679128011</v>
-      </c>
       <c r="G41">
-        <v>0.02321698770173215</v>
+        <v>45.7416666423281</v>
       </c>
       <c r="H41">
-        <v>28.30300006866455</v>
+        <v>0.4809350960847564</v>
       </c>
       <c r="I41">
-        <v>0.06810068899867333</v>
+        <v>46.99166673825433</v>
+      </c>
+      <c r="J41">
+        <v>0.3787497435026809</v>
+      </c>
+      <c r="K41">
+        <v>50.25303021002787</v>
+      </c>
+      <c r="L41">
+        <v>0.9412569258110211</v>
       </c>
     </row>
     <row r="42">
@@ -1612,26 +2147,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Pradera de Navarrulaque</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>1663.09</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84Pra</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D42">
-        <v>28.14050013224284</v>
-      </c>
-      <c r="E42">
-        <v>0.04313503191101738</v>
-      </c>
-      <c r="F42">
-        <v>28.17016668319702</v>
-      </c>
       <c r="G42">
-        <v>0.02196438454725656</v>
+        <v>41.50000008288771</v>
       </c>
       <c r="H42">
-        <v>28.21633329391479</v>
+        <v>0.4685230752638743</v>
       </c>
       <c r="I42">
-        <v>0.07629587400026791</v>
+        <v>42.86666694780191</v>
+      </c>
+      <c r="J42">
+        <v>0.364739177358561</v>
+      </c>
+      <c r="K42">
+        <v>45.89924275398141</v>
+      </c>
+      <c r="L42">
+        <v>1.017658504663952</v>
       </c>
     </row>
     <row r="43">
@@ -1642,26 +2190,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Los Pozuelos-Cañada Real</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>930.53</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16Poz</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D43">
-        <v>28.59899988174438</v>
-      </c>
-      <c r="E43">
-        <v>0.04412108955342919</v>
-      </c>
-      <c r="F43">
-        <v>28.62916660308838</v>
-      </c>
       <c r="G43">
-        <v>0.02230611166869389</v>
+        <v>64.40833322207133</v>
       </c>
       <c r="H43">
-        <v>28.70199998219808</v>
+        <v>0.5140863879591824</v>
       </c>
       <c r="I43">
-        <v>0.03919140297752005</v>
+        <v>65.79166674613953</v>
+      </c>
+      <c r="J43">
+        <v>0.3790522007855041</v>
+      </c>
+      <c r="K43">
+        <v>70.28106061978774</v>
+      </c>
+      <c r="L43">
+        <v>0.6406453960758755</v>
       </c>
     </row>
     <row r="44">
@@ -1672,26 +2233,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>La Angostura</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>1153.63</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37Ang</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D44">
-        <v>28.43249998092652</v>
-      </c>
-      <c r="E44">
-        <v>0.04351729043776324</v>
-      </c>
-      <c r="F44">
-        <v>28.4620000521342</v>
-      </c>
       <c r="G44">
-        <v>0.02175937069805006</v>
+        <v>56.10000030199686</v>
       </c>
       <c r="H44">
-        <v>28.52799984614054</v>
+        <v>0.4770641950137755</v>
       </c>
       <c r="I44">
-        <v>0.04521013015519866</v>
+        <v>57.44999992847443</v>
+      </c>
+      <c r="J44">
+        <v>0.3638814665961179</v>
+      </c>
+      <c r="K44">
+        <v>61.53787852597959</v>
+      </c>
+      <c r="L44">
+        <v>0.7054708482312809</v>
       </c>
     </row>
     <row r="45">
@@ -1702,26 +2276,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Camino de las Encinillas I</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>1395.18</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>59Enc</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D45">
-        <v>28.27116664250692</v>
-      </c>
-      <c r="E45">
-        <v>0.04407455206804724</v>
-      </c>
-      <c r="F45">
-        <v>28.29933322270711</v>
-      </c>
       <c r="G45">
-        <v>0.02143626644489011</v>
+        <v>48.03333280825367</v>
       </c>
       <c r="H45">
-        <v>28.35683329900106</v>
+        <v>0.4821249082935101</v>
       </c>
       <c r="I45">
-        <v>0.05860468940025861</v>
+        <v>49.32499983503173</v>
+      </c>
+      <c r="J45">
+        <v>0.3564095280431772</v>
+      </c>
+      <c r="K45">
+        <v>52.94393945553086</v>
+      </c>
+      <c r="L45">
+        <v>0.8468210448674093</v>
       </c>
     </row>
     <row r="46">
@@ -1732,26 +2319,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Restaurante La Isla</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>1252.92</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44Res</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D46">
-        <v>28.35833336512248</v>
-      </c>
-      <c r="E46">
-        <v>0.04546433682696136</v>
-      </c>
-      <c r="F46">
-        <v>28.39333330790202</v>
-      </c>
       <c r="G46">
-        <v>0.02138429553897845</v>
+        <v>52.39999994138877</v>
       </c>
       <c r="H46">
-        <v>28.45333334604899</v>
+        <v>0.5048239861057863</v>
       </c>
       <c r="I46">
-        <v>0.04898258258025558</v>
+        <v>54.00833329558373</v>
+      </c>
+      <c r="J46">
+        <v>0.3587885341503193</v>
+      </c>
+      <c r="K46">
+        <v>57.78787912834774</v>
+      </c>
+      <c r="L46">
+        <v>0.7586244901138292</v>
       </c>
     </row>
     <row r="47">
@@ -1762,26 +2362,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Gea de Albarracín</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>1066.96</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1GEA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D47">
-        <v>28.4578332901001</v>
-      </c>
-      <c r="E47">
-        <v>0.03679240802550671</v>
-      </c>
-      <c r="F47">
-        <v>28.53700008392334</v>
-      </c>
       <c r="G47">
-        <v>0.0244140087783052</v>
+        <v>57.3166667620341</v>
       </c>
       <c r="H47">
-        <v>28.60966653823853</v>
+        <v>0.5220685152237862</v>
       </c>
       <c r="I47">
-        <v>0.0394606443589421</v>
+        <v>61.11666696270307</v>
+      </c>
+      <c r="J47">
+        <v>0.4352282919947815</v>
+      </c>
+      <c r="K47">
+        <v>65.573484731443</v>
+      </c>
+      <c r="L47">
+        <v>0.6045235320955842</v>
       </c>
     </row>
     <row r="48">
@@ -1792,26 +2405,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Cuenca</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>1168.62</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4CUE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D48">
-        <v>28.4610000928243</v>
-      </c>
-      <c r="E48">
-        <v>0.04157235223091267</v>
-      </c>
-      <c r="F48">
-        <v>28.53350003560384</v>
-      </c>
       <c r="G48">
-        <v>0.02142016032106709</v>
+        <v>57.48333326975504</v>
       </c>
       <c r="H48">
-        <v>28.59850012461344</v>
+        <v>0.5398881783508136</v>
       </c>
       <c r="I48">
-        <v>0.05231243124536943</v>
+        <v>60.95833303531011</v>
+      </c>
+      <c r="J48">
+        <v>0.3852757794609758</v>
+      </c>
+      <c r="K48">
+        <v>65.02651557416627</v>
+      </c>
+      <c r="L48">
+        <v>0.7127282374121395</v>
       </c>
     </row>
     <row r="49">
@@ -1822,26 +2448,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Valdecuenca</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>1313.34</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>11VCU</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D49">
-        <v>28.31733322143555</v>
-      </c>
-      <c r="E49">
-        <v>0.03812628989486763</v>
-      </c>
-      <c r="F49">
-        <v>28.39466663996378</v>
-      </c>
       <c r="G49">
-        <v>0.02092987610195888</v>
+        <v>50.30833348135153</v>
       </c>
       <c r="H49">
-        <v>28.46066668828329</v>
+        <v>0.5204363969260142</v>
       </c>
       <c r="I49">
-        <v>0.03842112116263755</v>
+        <v>54.00833329806725</v>
+      </c>
+      <c r="J49">
+        <v>0.3945109896226142</v>
+      </c>
+      <c r="K49">
+        <v>58.11136342449622</v>
+      </c>
+      <c r="L49">
+        <v>0.6580043442741328</v>
       </c>
     </row>
     <row r="50">
@@ -1852,26 +2491,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Las Majadas</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>1447.01</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14MAJ</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D50">
-        <v>28.25449997584025</v>
-      </c>
-      <c r="E50">
-        <v>0.04419648114247778</v>
-      </c>
-      <c r="F50">
-        <v>28.31850001017253</v>
-      </c>
       <c r="G50">
-        <v>0.02310457566027898</v>
+        <v>47.19999990953753</v>
       </c>
       <c r="H50">
-        <v>28.37233333587647</v>
+        <v>0.5395921692216401</v>
       </c>
       <c r="I50">
-        <v>0.05947212505382598</v>
+        <v>50.22500044604143</v>
+      </c>
+      <c r="J50">
+        <v>0.4083588124961767</v>
+      </c>
+      <c r="K50">
+        <v>53.67651546136899</v>
+      </c>
+      <c r="L50">
+        <v>0.8086382000910084</v>
       </c>
     </row>
     <row r="51">
@@ -1882,26 +2534,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Uña</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>1147.66</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3UÑA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D51">
-        <v>28.44950024286906</v>
-      </c>
-      <c r="E51">
-        <v>0.04278739799090975</v>
-      </c>
-      <c r="F51">
-        <v>28.51716658274333</v>
-      </c>
       <c r="G51">
-        <v>0.02268147375084224</v>
+        <v>56.95833313465118</v>
       </c>
       <c r="H51">
-        <v>28.585666624705</v>
+        <v>0.5263210612830979</v>
       </c>
       <c r="I51">
-        <v>0.05361396744862929</v>
+        <v>60.15000016490619</v>
+      </c>
+      <c r="J51">
+        <v>0.4024058871408586</v>
+      </c>
+      <c r="K51">
+        <v>64.35681848092513</v>
+      </c>
+      <c r="L51">
+        <v>0.6546717920093527</v>
       </c>
     </row>
     <row r="52">
@@ -1912,26 +2577,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Moscardón</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>1622.73</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20MOS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D52">
-        <v>28.12766656875611</v>
-      </c>
-      <c r="E52">
-        <v>0.03858348252393773</v>
-      </c>
-      <c r="F52">
-        <v>28.19916664759318</v>
-      </c>
       <c r="G52">
-        <v>0.02162665622112408</v>
+        <v>40.84999983167896</v>
       </c>
       <c r="H52">
-        <v>28.25499986012776</v>
+        <v>0.5080122487676456</v>
       </c>
       <c r="I52">
-        <v>0.05171690428912774</v>
+        <v>44.24166673763345</v>
+      </c>
+      <c r="J52">
+        <v>0.4154315062126158</v>
+      </c>
+      <c r="K52">
+        <v>47.7946970365998</v>
+      </c>
+      <c r="L52">
+        <v>0.7948987950350607</v>
       </c>
     </row>
     <row r="53">
@@ -1942,26 +2620,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Tragacete</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>1297.79</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8TRG</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D53">
-        <v>28.37700010935465</v>
-      </c>
-      <c r="E53">
-        <v>0.04253504049765717</v>
-      </c>
-      <c r="F53">
-        <v>28.4388334274292</v>
-      </c>
       <c r="G53">
-        <v>0.02448486341998098</v>
+        <v>53.35833300153414</v>
       </c>
       <c r="H53">
-        <v>28.50899988810221</v>
+        <v>0.5046519375670128</v>
       </c>
       <c r="I53">
-        <v>0.05366242001597865</v>
+        <v>56.23333351810774</v>
+      </c>
+      <c r="J53">
+        <v>0.4192254409899169</v>
+      </c>
+      <c r="K53">
+        <v>60.48333342689456</v>
+      </c>
+      <c r="L53">
+        <v>0.6378566024680697</v>
       </c>
     </row>
     <row r="54">
@@ -1972,26 +2663,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>Griegos</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>1543.02</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>17GRI</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D54">
-        <v>28.17383337020874</v>
-      </c>
-      <c r="E54">
-        <v>0.04054586442535279</v>
-      </c>
-      <c r="F54">
-        <v>28.24133342107137</v>
-      </c>
       <c r="G54">
-        <v>0.02615129506594678</v>
+        <v>43.19166672384988</v>
       </c>
       <c r="H54">
-        <v>28.30100008646647</v>
+        <v>0.5072940288323551</v>
       </c>
       <c r="I54">
-        <v>0.0508313484330589</v>
+        <v>46.35000003377597</v>
+      </c>
+      <c r="J54">
+        <v>0.4564962537949267</v>
+      </c>
+      <c r="K54">
+        <v>50.0848485472979</v>
+      </c>
+      <c r="L54">
+        <v>0.7395849858689316</v>
       </c>
     </row>
     <row r="55">
@@ -2002,26 +2706,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Tramacastilla</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>1385.01</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13TRM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D55">
-        <v>28.23933331171672</v>
-      </c>
-      <c r="E55">
-        <v>0.03830336353595351</v>
-      </c>
-      <c r="F55">
-        <v>28.31316665013631</v>
-      </c>
       <c r="G55">
-        <v>0.02457561124882352</v>
+        <v>46.43333334630976</v>
       </c>
       <c r="H55">
-        <v>28.37683327992757</v>
+        <v>0.5079097180902121</v>
       </c>
       <c r="I55">
-        <v>0.04445440325810977</v>
+        <v>49.93333335965872</v>
+      </c>
+      <c r="J55">
+        <v>0.446226424184536</v>
+      </c>
+      <c r="K55">
+        <v>53.89999987365621</v>
+      </c>
+      <c r="L55">
+        <v>0.7072442789868568</v>
       </c>
     </row>
     <row r="56">
@@ -2032,26 +2749,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>Villar del Cobo</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>1501.56</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16VCB</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D56">
-        <v>28.15066658655803</v>
-      </c>
-      <c r="E56">
-        <v>0.03947732651817505</v>
-      </c>
-      <c r="F56">
-        <v>28.22149998346965</v>
-      </c>
       <c r="G56">
-        <v>0.02468842131572674</v>
+        <v>42.01666688174009</v>
       </c>
       <c r="H56">
-        <v>28.27899990081787</v>
+        <v>0.5061634174982731</v>
       </c>
       <c r="I56">
-        <v>0.04905488122339182</v>
+        <v>45.35833320021629</v>
+      </c>
+      <c r="J56">
+        <v>0.4470816141347995</v>
+      </c>
+      <c r="K56">
+        <v>48.99469715108474</v>
+      </c>
+      <c r="L56">
+        <v>0.7587531970522949</v>
       </c>
     </row>
     <row r="57">
@@ -2062,26 +2792,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Monterde de Albarracín</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>1263.99</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7MON</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D57">
-        <v>28.32900005976359</v>
-      </c>
-      <c r="E57">
-        <v>0.03753895873545416</v>
-      </c>
-      <c r="F57">
-        <v>28.40750007629395</v>
-      </c>
       <c r="G57">
-        <v>0.02730354094454901</v>
+        <v>50.88333309690157</v>
       </c>
       <c r="H57">
-        <v>28.47400010426839</v>
+        <v>0.5261033242226878</v>
       </c>
       <c r="I57">
-        <v>0.03758046091456582</v>
+        <v>54.6416663567846</v>
+      </c>
+      <c r="J57">
+        <v>0.4699881433435974</v>
+      </c>
+      <c r="K57">
+        <v>58.77348445581667</v>
+      </c>
+      <c r="L57">
+        <v>0.6604610214384505</v>
       </c>
     </row>
     <row r="58">
@@ -2092,26 +2835,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Cella</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>1219.31</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6CEL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D58">
-        <v>28.37649993896484</v>
-      </c>
-      <c r="E58">
-        <v>0.03655939765390242</v>
-      </c>
-      <c r="F58">
-        <v>28.45416673024495</v>
-      </c>
       <c r="G58">
-        <v>0.02732906991440994</v>
+        <v>53.24999978144964</v>
       </c>
       <c r="H58">
-        <v>28.52199993133545</v>
+        <v>0.5239738573207151</v>
       </c>
       <c r="I58">
-        <v>0.03700870476140311</v>
+        <v>56.97499973078569</v>
+      </c>
+      <c r="J58">
+        <v>0.4707632103379422</v>
+      </c>
+      <c r="K58">
+        <v>61.18787865205245</v>
+      </c>
+      <c r="L58">
+        <v>0.6422652982636582</v>
       </c>
     </row>
     <row r="59">
@@ -2122,26 +2878,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Masegosa</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>1357.41</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12MAS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D59">
-        <v>28.30716663996379</v>
-      </c>
-      <c r="E59">
-        <v>0.04649006638809478</v>
-      </c>
-      <c r="F59">
-        <v>28.3686666170756</v>
-      </c>
       <c r="G59">
-        <v>0.02762358038259748</v>
+        <v>49.83333334575097</v>
       </c>
       <c r="H59">
-        <v>28.42650006612142</v>
+        <v>0.5519221563006365</v>
       </c>
       <c r="I59">
-        <v>0.05307693539119247</v>
+        <v>52.71666668945302</v>
+      </c>
+      <c r="J59">
+        <v>0.4363039306606895</v>
+      </c>
+      <c r="K59">
+        <v>56.37878775686929</v>
+      </c>
+      <c r="L59">
+        <v>0.7403714759375117</v>
       </c>
     </row>
     <row r="60">
@@ -2152,26 +2921,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Vega del Codorno</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>1450.55</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15VCO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D60">
-        <v>28.22399991353353</v>
-      </c>
-      <c r="E60">
-        <v>0.04502462017356178</v>
-      </c>
-      <c r="F60">
-        <v>28.28583335876465</v>
-      </c>
       <c r="G60">
-        <v>0.02568516792962541</v>
+        <v>45.70833330104749</v>
       </c>
       <c r="H60">
-        <v>28.34283332824707</v>
+        <v>0.5314745481243655</v>
       </c>
       <c r="I60">
-        <v>0.05462801586628024</v>
+        <v>48.58333351804564</v>
+      </c>
+      <c r="J60">
+        <v>0.4325312386594927</v>
+      </c>
+      <c r="K60">
+        <v>52.1833334713892</v>
+      </c>
+      <c r="L60">
+        <v>0.7532014503797555</v>
       </c>
     </row>
     <row r="61">
@@ -2182,26 +2964,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>N. Río Cuervo</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>1577.11</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19NRC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D61">
-        <v>28.15299987792969</v>
-      </c>
-      <c r="E61">
-        <v>0.04515629874509317</v>
-      </c>
-      <c r="F61">
-        <v>28.21649990081787</v>
-      </c>
       <c r="G61">
-        <v>0.0263417693121463</v>
+        <v>42.15833328167597</v>
       </c>
       <c r="H61">
-        <v>28.26783339182536</v>
+        <v>0.5341595297409248</v>
       </c>
       <c r="I61">
-        <v>0.0595865103358184</v>
+        <v>45.11666658613831</v>
+      </c>
+      <c r="J61">
+        <v>0.4345894905285911</v>
+      </c>
+      <c r="K61">
+        <v>48.42575763163129</v>
+      </c>
+      <c r="L61">
+        <v>0.8218109579085552</v>
       </c>
     </row>
     <row r="62">
@@ -2212,26 +3007,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>N. Río Tajo</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>1586.54</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>18TAJ</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D62">
-        <v>28.15183318456014</v>
-      </c>
-      <c r="E62">
-        <v>0.04074128750999361</v>
-      </c>
-      <c r="F62">
-        <v>28.21616659164429</v>
-      </c>
       <c r="G62">
-        <v>0.02243514189753116</v>
+        <v>42.10000015050173</v>
       </c>
       <c r="H62">
-        <v>28.27316665649414</v>
+        <v>0.5030668979254848</v>
       </c>
       <c r="I62">
-        <v>0.05295896644725267</v>
+        <v>45.10833299749841</v>
+      </c>
+      <c r="J62">
+        <v>0.4126725283691149</v>
+      </c>
+      <c r="K62">
+        <v>48.6939394397266</v>
+      </c>
+      <c r="L62">
+        <v>0.7580005358956973</v>
       </c>
     </row>
     <row r="63">
@@ -2242,26 +3050,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>El Recuenco</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>1162.44</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5REC</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D63">
-        <v>28.44616676966349</v>
-      </c>
-      <c r="E63">
-        <v>0.04989439444732158</v>
-      </c>
-      <c r="F63">
-        <v>28.50616664886475</v>
-      </c>
       <c r="G63">
-        <v>0.02697492602066005</v>
+        <v>56.74999982118607</v>
       </c>
       <c r="H63">
-        <v>28.56916672388713</v>
+        <v>0.6079335770799978</v>
       </c>
       <c r="I63">
-        <v>0.05024239633805003</v>
+        <v>59.59999995430311</v>
+      </c>
+      <c r="J63">
+        <v>0.4145195246818538</v>
+      </c>
+      <c r="K63">
+        <v>63.55833346735348</v>
+      </c>
+      <c r="L63">
+        <v>0.7259476779484626</v>
       </c>
     </row>
     <row r="64">
@@ -2272,26 +3093,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Pinilla de Molina</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>1304.21</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>9PIN</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D64">
-        <v>28.34666678110758</v>
-      </c>
-      <c r="E64">
-        <v>0.04220081674916663</v>
-      </c>
-      <c r="F64">
-        <v>28.41500005722046</v>
-      </c>
       <c r="G64">
-        <v>0.0325157974444976</v>
+        <v>51.80833322306474</v>
       </c>
       <c r="H64">
-        <v>28.47599992752075</v>
+        <v>0.5306115470992117</v>
       </c>
       <c r="I64">
-        <v>0.04538181963519559</v>
+        <v>55.01666657129924</v>
+      </c>
+      <c r="J64">
+        <v>0.5057860114487648</v>
+      </c>
+      <c r="K64">
+        <v>58.85530293800614</v>
+      </c>
+      <c r="L64">
+        <v>0.6879040573991944</v>
       </c>
     </row>
     <row r="65">
@@ -2302,26 +3136,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Salmerón</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>1128.05</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2SAL</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D65">
-        <v>28.46283343633016</v>
-      </c>
-      <c r="E65">
-        <v>0.04878245696459518</v>
-      </c>
-      <c r="F65">
-        <v>28.5243332862854</v>
-      </c>
       <c r="G65">
-        <v>0.02657154902514902</v>
+        <v>57.59166697661082</v>
       </c>
       <c r="H65">
-        <v>28.58749996821086</v>
+        <v>0.6071163366361554</v>
       </c>
       <c r="I65">
-        <v>0.0525265265616648</v>
+        <v>60.50833337008953</v>
+      </c>
+      <c r="J65">
+        <v>0.4127482580365697</v>
+      </c>
+      <c r="K65">
+        <v>64.49242385409096</v>
+      </c>
+      <c r="L65">
+        <v>0.7586217825516207</v>
       </c>
     </row>
     <row r="66">
@@ -2332,26 +3179,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Torremocha del Pinar</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>1304.4</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10TMO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D66">
-        <v>28.35300019582112</v>
-      </c>
-      <c r="E66">
-        <v>0.0394257317489974</v>
-      </c>
-      <c r="F66">
-        <v>28.41950012842814</v>
-      </c>
       <c r="G66">
-        <v>0.03460379553637777</v>
+        <v>52.08333322405815</v>
       </c>
       <c r="H66">
-        <v>28.46999994913737</v>
+        <v>0.5363522447079027</v>
       </c>
       <c r="I66">
-        <v>0.04740115161752799</v>
+        <v>55.25000008692344</v>
+      </c>
+      <c r="J66">
+        <v>0.511567545525739</v>
+      </c>
+      <c r="K66">
+        <v>58.5749998959628</v>
+      </c>
+      <c r="L66">
+        <v>0.7608566186315768</v>
       </c>
     </row>
     <row r="67">
@@ -2362,26 +3222,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>JAV1-Pico</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>2010.09</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1JAV</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D67">
-        <v>27.9414999961853</v>
-      </c>
-      <c r="E67">
-        <v>0.03150945901392079</v>
-      </c>
-      <c r="F67">
-        <v>28.00199998219808</v>
-      </c>
       <c r="G67">
-        <v>0.0176244844048594</v>
+        <v>31.50833318879207</v>
       </c>
       <c r="H67">
-        <v>28.03549992243449</v>
+        <v>0.4313415748693049</v>
       </c>
       <c r="I67">
-        <v>0.09111310376015544</v>
+        <v>34.40833333631357</v>
+      </c>
+      <c r="J67">
+        <v>0.3685274924272014</v>
+      </c>
+      <c r="K67">
+        <v>36.8022729244196</v>
+      </c>
+      <c r="L67">
+        <v>1.206746819047532</v>
       </c>
     </row>
     <row r="68">
@@ -2392,26 +3265,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>JAV2-Estación</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>1921.92</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2JAV</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D68">
-        <v>27.95316664377848</v>
-      </c>
-      <c r="E68">
-        <v>0.03127713814597852</v>
-      </c>
-      <c r="F68">
-        <v>28.01333332061768</v>
-      </c>
       <c r="G68">
-        <v>0.0184560260272693</v>
+        <v>32.09166659756253</v>
       </c>
       <c r="H68">
-        <v>28.04849996566772</v>
+        <v>0.4272570775239392</v>
       </c>
       <c r="I68">
-        <v>0.09007599983456678</v>
+        <v>34.97500004402051</v>
+      </c>
+      <c r="J68">
+        <v>0.3773353034320417</v>
+      </c>
+      <c r="K68">
+        <v>37.45454562207063</v>
+      </c>
+      <c r="L68">
+        <v>1.197344109812885</v>
       </c>
     </row>
     <row r="69">
@@ -2422,26 +3308,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>JAV3-Apollos</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>1835.75</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3JAV</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D69">
-        <v>28.02816673914591</v>
-      </c>
-      <c r="E69">
-        <v>0.03200151001329463</v>
-      </c>
-      <c r="F69">
-        <v>28.08899997075399</v>
-      </c>
       <c r="G69">
-        <v>0.0196443168383741</v>
+        <v>35.85000008003166</v>
       </c>
       <c r="H69">
-        <v>28.12833331425985</v>
+        <v>0.4416902723942555</v>
       </c>
       <c r="I69">
-        <v>0.07932883805147084</v>
+        <v>38.7499999900659</v>
+      </c>
+      <c r="J69">
+        <v>0.3905124816118564</v>
+      </c>
+      <c r="K69">
+        <v>41.45075738071606</v>
+      </c>
+      <c r="L69">
+        <v>1.101749974381021</v>
       </c>
     </row>
     <row r="70">
@@ -2452,26 +3351,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>JAV4-Pinar</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>1713.18</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4JAV</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D70">
-        <v>28.06266663869222</v>
-      </c>
-      <c r="E70">
-        <v>0.03087502668611854</v>
-      </c>
-      <c r="F70">
-        <v>28.12433341344197</v>
-      </c>
       <c r="G70">
-        <v>0.01949362275872645</v>
+        <v>37.56666674961647</v>
       </c>
       <c r="H70">
-        <v>28.16499999364217</v>
+        <v>0.4292516087447917</v>
       </c>
       <c r="I70">
-        <v>0.07425095082053534</v>
+        <v>40.5166667525967</v>
+      </c>
+      <c r="J70">
+        <v>0.3844910097708691</v>
+      </c>
+      <c r="K70">
+        <v>43.2893938605081</v>
+      </c>
+      <c r="L70">
+        <v>1.058126492377698</v>
       </c>
     </row>
     <row r="71">
@@ -2482,26 +3394,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>JAV5-Fte Alonso</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>1614.48</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>5JAV</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D71">
-        <v>28.2023333867391</v>
-      </c>
-      <c r="E71">
-        <v>0.0320177516958757</v>
-      </c>
-      <c r="F71">
-        <v>28.26516672770182</v>
-      </c>
       <c r="G71">
-        <v>0.02021065500178388</v>
+        <v>44.54999974183738</v>
       </c>
       <c r="H71">
-        <v>28.31616665522257</v>
+        <v>0.4484695633491582</v>
       </c>
       <c r="I71">
-        <v>0.05214343778304857</v>
+        <v>47.5500000740091</v>
+      </c>
+      <c r="J71">
+        <v>0.3952583191689742</v>
+      </c>
+      <c r="K71">
+        <v>50.85757586811528</v>
+      </c>
+      <c r="L71">
+        <v>0.8600732808184295</v>
       </c>
     </row>
     <row r="72">
@@ -2512,26 +3437,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>JAV6-Parthenoides</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>1514.56</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6JAV</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D72">
-        <v>28.21100012461345</v>
-      </c>
-      <c r="E72">
-        <v>0.03197973108814499</v>
-      </c>
-      <c r="F72">
-        <v>28.2745000521342</v>
-      </c>
       <c r="G72">
-        <v>0.02082173188619615</v>
+        <v>44.98333317538102</v>
       </c>
       <c r="H72">
-        <v>28.32649987538656</v>
+        <v>0.450216026956823</v>
       </c>
       <c r="I72">
-        <v>0.04927033734527075</v>
+        <v>48.01666680568208</v>
+      </c>
+      <c r="J72">
+        <v>0.3999826040029804</v>
+      </c>
+      <c r="K72">
+        <v>51.37272730560014</v>
+      </c>
+      <c r="L72">
+        <v>0.8306041147152582</v>
       </c>
     </row>
     <row r="73">
@@ -2542,26 +3480,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>JAV7-Ruinas</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>1406.92</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7JAV</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D73">
-        <v>28.24350004196167</v>
-      </c>
-      <c r="E73">
-        <v>0.03163054795654943</v>
-      </c>
-      <c r="F73">
-        <v>28.30783332188924</v>
-      </c>
       <c r="G73">
-        <v>0.02067095141497949</v>
+        <v>46.60833352804184</v>
       </c>
       <c r="H73">
-        <v>28.36100006103516</v>
+        <v>0.4480900855468334</v>
       </c>
       <c r="I73">
-        <v>0.04378931420233882</v>
+        <v>49.67499972631534</v>
+      </c>
+      <c r="J73">
+        <v>0.394686878054965</v>
+      </c>
+      <c r="K73">
+        <v>53.10681801131278</v>
+      </c>
+      <c r="L73">
+        <v>0.7774804304908557</v>
       </c>
     </row>
     <row r="74">
@@ -2572,26 +3523,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>JAV8-Senda fluvial</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>1304</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8JAV</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D74">
-        <v>28.30316661198934</v>
-      </c>
-      <c r="E74">
-        <v>0.03276281396394917</v>
-      </c>
-      <c r="F74">
-        <v>28.36816670099894</v>
-      </c>
       <c r="G74">
-        <v>0.02014181793127745</v>
+        <v>49.59166655441126</v>
       </c>
       <c r="H74">
-        <v>28.4264999071757</v>
+        <v>0.4653029831506756</v>
       </c>
       <c r="I74">
-        <v>0.03855634097941799</v>
+        <v>52.6833336253961</v>
+      </c>
+      <c r="J74">
+        <v>0.3905835884353381</v>
+      </c>
+      <c r="K74">
+        <v>56.38333348523487</v>
+      </c>
+      <c r="L74">
+        <v>0.7282350888670079</v>
       </c>
     </row>
     <row r="75">
@@ -2602,26 +3566,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>JAV9-Huellas</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>1205.88</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>9JAV</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D75">
-        <v>28.34249998728434</v>
-      </c>
-      <c r="E75">
-        <v>0.03252680256166739</v>
-      </c>
-      <c r="F75">
-        <v>28.40883334477742</v>
-      </c>
       <c r="G75">
-        <v>0.02014351749510623</v>
+        <v>51.55833334724108</v>
       </c>
       <c r="H75">
-        <v>28.46850007375081</v>
+        <v>0.4631789461140867</v>
       </c>
       <c r="I75">
-        <v>0.03441168190815287</v>
+        <v>54.7249999170502</v>
+      </c>
+      <c r="J75">
+        <v>0.3908057154299299</v>
+      </c>
+      <c r="K75">
+        <v>58.49166664571473</v>
+      </c>
+      <c r="L75">
+        <v>0.6848154191721915</v>
       </c>
     </row>
     <row r="76">
@@ -2632,26 +3609,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>JAV10-7 Chorrazos</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>1114.43</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10JAV</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D76">
-        <v>28.38783340454102</v>
-      </c>
-      <c r="E76">
-        <v>0.0332946838508839</v>
-      </c>
-      <c r="F76">
-        <v>28.45583330790202</v>
-      </c>
       <c r="G76">
-        <v>0.02062399113591265</v>
+        <v>53.81666681170464</v>
       </c>
       <c r="H76">
-        <v>28.51749998728434</v>
+        <v>0.4735211398390779</v>
       </c>
       <c r="I76">
-        <v>0.03280298698671091</v>
+        <v>57.07499993344148</v>
+      </c>
+      <c r="J76">
+        <v>0.3974046832033069</v>
+      </c>
+      <c r="K76">
+        <v>60.94772733702804</v>
+      </c>
+      <c r="L76">
+        <v>0.663884178962727</v>
       </c>
     </row>
     <row r="77">
@@ -2662,26 +3652,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>La Cebedilla</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>1372.79</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>8Cebe</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D77">
-        <v>28.25349998474121</v>
-      </c>
-      <c r="E77">
-        <v>0.05168819976564444</v>
-      </c>
-      <c r="F77">
-        <v>28.2730001449585</v>
-      </c>
       <c r="G77">
-        <v>0.01812954445961099</v>
+        <v>47.2083331917723</v>
       </c>
       <c r="H77">
-        <v>28.31799999872844</v>
+        <v>0.5030462678686273</v>
       </c>
       <c r="I77">
-        <v>0.06560504330967941</v>
+        <v>48.05833318425963</v>
+      </c>
+      <c r="J77">
+        <v>0.3440264468932876</v>
+      </c>
+      <c r="K77">
+        <v>51.00984832915393</v>
+      </c>
+      <c r="L77">
+        <v>0.8764925532450586</v>
       </c>
     </row>
     <row r="78">
@@ -2692,26 +3695,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>Prado de las Pozas</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>1955.97</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>16Pozas</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D78">
-        <v>27.92700004577637</v>
-      </c>
-      <c r="E78">
-        <v>0.0497967723747624</v>
-      </c>
-      <c r="F78">
-        <v>27.9435001373291</v>
-      </c>
       <c r="G78">
-        <v>0.01780872834496705</v>
+        <v>30.88333327323198</v>
       </c>
       <c r="H78">
-        <v>27.96533339818319</v>
+        <v>0.4803210755295847</v>
       </c>
       <c r="I78">
-        <v>0.1140961491415418</v>
+        <v>31.58333323989064</v>
+      </c>
+      <c r="J78">
+        <v>0.3503470524450201</v>
+      </c>
+      <c r="K78">
+        <v>33.32575738607821</v>
+      </c>
+      <c r="L78">
+        <v>1.366378664237201</v>
       </c>
     </row>
     <row r="79">
@@ -2722,26 +3738,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Collado La Gasca</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>1603.54</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77Col</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D79">
-        <v>28.16833327611288</v>
-      </c>
-      <c r="E79">
-        <v>0.0425041133789499</v>
-      </c>
-      <c r="F79">
-        <v>28.19416669209798</v>
-      </c>
       <c r="G79">
-        <v>0.02237617019907908</v>
+        <v>42.87499988824129</v>
       </c>
       <c r="H79">
-        <v>28.24050006866455</v>
+        <v>0.4701876266752266</v>
       </c>
       <c r="I79">
-        <v>0.07859590021973494</v>
+        <v>44.06666663382202</v>
+      </c>
+      <c r="J79">
+        <v>0.3701820456044522</v>
+      </c>
+      <c r="K79">
+        <v>47.11363619247057</v>
+      </c>
+      <c r="L79">
+        <v>1.038831318037652</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Temperature_transects_results.xlsx
+++ b/Results/Temperature_transects_results.xlsx
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sum_1985_1989</t>
+          <t>mean_1985_1989</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -400,7 +400,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>sum_2000_2004</t>
+          <t>mean_2000_2004</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -410,7 +410,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>sum_2015_2019</t>
+          <t>mean_2015_2019</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -444,19 +444,19 @@
         </is>
       </c>
       <c r="G2">
-        <v>44.89166672279437</v>
+        <v>8.978333344558875</v>
       </c>
       <c r="H2">
         <v>0.4758253462401699</v>
       </c>
       <c r="I2">
-        <v>46.32499970992406</v>
+        <v>9.264999941984812</v>
       </c>
       <c r="J2">
         <v>0.3603336128088767</v>
       </c>
       <c r="K2">
-        <v>49.53333329637958</v>
+        <v>9.906666659275917</v>
       </c>
       <c r="L2">
         <v>0.9450786789591593</v>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="G3">
-        <v>50.08333359907071</v>
+        <v>10.01666671981414</v>
       </c>
       <c r="H3">
         <v>0.4895080199126144</v>
       </c>
       <c r="I3">
-        <v>51.50833337008953</v>
+        <v>10.30166667401791</v>
       </c>
       <c r="J3">
         <v>0.3696564858227666</v>
       </c>
       <c r="K3">
-        <v>55.10151523171049</v>
+        <v>11.0203030463421</v>
       </c>
       <c r="L3">
         <v>0.7989378120410701</v>
@@ -530,19 +530,19 @@
         </is>
       </c>
       <c r="G4">
-        <v>55.29166642328103</v>
+        <v>11.05833328465621</v>
       </c>
       <c r="H4">
         <v>0.5279020419150359</v>
       </c>
       <c r="I4">
-        <v>56.25833324591319</v>
+        <v>11.25166664918264</v>
       </c>
       <c r="J4">
         <v>0.359803152611075</v>
       </c>
       <c r="K4">
-        <v>60.23106002085137</v>
+        <v>12.04621200417027</v>
       </c>
       <c r="L4">
         <v>0.7024549090214567</v>
@@ -573,19 +573,19 @@
         </is>
       </c>
       <c r="G5">
-        <v>46.76666683703661</v>
+        <v>9.353333367407322</v>
       </c>
       <c r="H5">
         <v>0.4967813809869548</v>
       </c>
       <c r="I5">
-        <v>47.53333346297344</v>
+        <v>9.506666692594687</v>
       </c>
       <c r="J5">
         <v>0.3649295449625468</v>
       </c>
       <c r="K5">
-        <v>50.82348497073646</v>
+        <v>10.16469699414729</v>
       </c>
       <c r="L5">
         <v>0.79633817037402</v>
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="G6">
-        <v>54.29166666666667</v>
+        <v>10.85833333333333</v>
       </c>
       <c r="H6">
         <v>0.5056280290585402</v>
       </c>
       <c r="I6">
-        <v>54.92500001688799</v>
+        <v>10.9850000033776</v>
       </c>
       <c r="J6">
         <v>0.3374433695289634</v>
       </c>
       <c r="K6">
-        <v>58.5083335276806</v>
+        <v>11.70166670553612</v>
       </c>
       <c r="L6">
         <v>0.6958558135333091</v>
@@ -659,19 +659,19 @@
         </is>
       </c>
       <c r="G7">
-        <v>49.21666688472033</v>
+        <v>9.843333376944065</v>
       </c>
       <c r="H7">
         <v>0.5010891535756762</v>
       </c>
       <c r="I7">
-        <v>49.96666667455187</v>
+        <v>9.993333334910373</v>
       </c>
       <c r="J7">
         <v>0.3576737606383336</v>
       </c>
       <c r="K7">
-        <v>53.4386367057309</v>
+        <v>10.68772734114618</v>
       </c>
       <c r="L7">
         <v>0.7561523421871378</v>
@@ -702,19 +702,19 @@
         </is>
       </c>
       <c r="G8">
-        <v>42.78333315501611</v>
+        <v>8.556666631003221</v>
       </c>
       <c r="H8">
         <v>0.4878879633998017</v>
       </c>
       <c r="I8">
-        <v>43.666666772527</v>
+        <v>8.733333354505399</v>
       </c>
       <c r="J8">
         <v>0.3531112020822858</v>
       </c>
       <c r="K8">
-        <v>46.57045435950612</v>
+        <v>9.314090871901223</v>
       </c>
       <c r="L8">
         <v>0.9286264767490172</v>
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="G9">
-        <v>31.47499970439822</v>
+        <v>6.294999940879643</v>
       </c>
       <c r="H9">
         <v>0.4927459473175773</v>
       </c>
       <c r="I9">
-        <v>32.15833332793167</v>
+        <v>6.431666665586333</v>
       </c>
       <c r="J9">
         <v>0.3727432329125389</v>
       </c>
       <c r="K9">
-        <v>34.2810604028178</v>
+        <v>6.85621208056356</v>
       </c>
       <c r="L9">
         <v>1.180126797623277</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="G10">
-        <v>32.48333343025297</v>
+        <v>6.496666686050594</v>
       </c>
       <c r="H10">
         <v>0.4746929045262392</v>
       </c>
       <c r="I10">
-        <v>33.15000019129366</v>
+        <v>6.630000038258731</v>
       </c>
       <c r="J10">
         <v>0.3453359535369213</v>
       </c>
       <c r="K10">
-        <v>34.99318194773161</v>
+        <v>6.998636389546323</v>
       </c>
       <c r="L10">
         <v>1.321545830638325</v>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="G11">
-        <v>49.66666637019564</v>
+        <v>9.933333274039129</v>
       </c>
       <c r="H11">
         <v>0.4956406607228057</v>
       </c>
       <c r="I11">
-        <v>50.58333344850689</v>
+        <v>10.11666668970138</v>
       </c>
       <c r="J11">
         <v>0.3474610183048486</v>
       </c>
       <c r="K11">
-        <v>53.78106045632651</v>
+        <v>10.7562120912653</v>
       </c>
       <c r="L11">
         <v>0.8430889661205501</v>
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="G12">
-        <v>66.26666633288066</v>
+        <v>13.25333326657613</v>
       </c>
       <c r="H12">
         <v>0.5453591605623736</v>
       </c>
       <c r="I12">
-        <v>67.16666654745738</v>
+        <v>13.43333330949148</v>
       </c>
       <c r="J12">
         <v>0.3323945028349608</v>
       </c>
       <c r="K12">
-        <v>71.31439364678931</v>
+        <v>14.26287872935786</v>
       </c>
       <c r="L12">
         <v>0.6663273789774303</v>
@@ -917,19 +917,19 @@
         </is>
       </c>
       <c r="G13">
-        <v>68.14166671037674</v>
+        <v>13.62833334207535</v>
       </c>
       <c r="H13">
         <v>0.5730825721042728</v>
       </c>
       <c r="I13">
-        <v>68.87499992052713</v>
+        <v>13.77499998410543</v>
       </c>
       <c r="J13">
         <v>0.3383477155736309</v>
       </c>
       <c r="K13">
-        <v>72.78106077873346</v>
+        <v>14.55621215574669</v>
       </c>
       <c r="L13">
         <v>0.6345536349833347</v>
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="G14">
-        <v>81.45000008742014</v>
+        <v>16.29000001748403</v>
       </c>
       <c r="H14">
         <v>0.632219371260468</v>
       </c>
       <c r="I14">
-        <v>82.28333298365276</v>
+        <v>16.45666659673055</v>
       </c>
       <c r="J14">
         <v>0.3452756779899969</v>
       </c>
       <c r="K14">
-        <v>86.74924206372464</v>
+        <v>17.34984841274493</v>
       </c>
       <c r="L14">
         <v>0.676427254505967</v>
@@ -1003,19 +1003,19 @@
         </is>
       </c>
       <c r="G15">
-        <v>50.88333330551783</v>
+        <v>10.17666666110357</v>
       </c>
       <c r="H15">
         <v>0.4995624058557152</v>
       </c>
       <c r="I15">
-        <v>51.80833335965872</v>
+        <v>10.36166667193174</v>
       </c>
       <c r="J15">
         <v>0.3328955664831668</v>
       </c>
       <c r="K15">
-        <v>55.02651524498607</v>
+        <v>11.00530304899722</v>
       </c>
       <c r="L15">
         <v>0.8260812066866157</v>
@@ -1046,19 +1046,19 @@
         </is>
       </c>
       <c r="G16">
-        <v>55.07500013709068</v>
+        <v>11.01500002741814</v>
       </c>
       <c r="H16">
         <v>0.5117847405124354</v>
       </c>
       <c r="I16">
-        <v>55.92500020066898</v>
+        <v>11.18500004013379</v>
       </c>
       <c r="J16">
         <v>0.3338224969706998</v>
       </c>
       <c r="K16">
-        <v>59.34848467689572</v>
+        <v>11.86969693537914</v>
       </c>
       <c r="L16">
         <v>0.7431156077993467</v>
@@ -1089,19 +1089,19 @@
         </is>
       </c>
       <c r="G17">
-        <v>51.15833331892888</v>
+        <v>10.23166666378578</v>
       </c>
       <c r="H17">
         <v>0.5027148946897218</v>
       </c>
       <c r="I17">
-        <v>52.11666642626127</v>
+        <v>10.42333328525225</v>
       </c>
       <c r="J17">
         <v>0.336206398030093</v>
       </c>
       <c r="K17">
-        <v>55.34393940459599</v>
+        <v>11.0687878809192</v>
       </c>
       <c r="L17">
         <v>0.7949893243981613</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="G18">
-        <v>33.99999990624686</v>
+        <v>6.799999981249372</v>
       </c>
       <c r="H18">
         <v>0.4826503897691934</v>
       </c>
       <c r="I18">
-        <v>35.50833354393642</v>
+        <v>7.101666708787283</v>
       </c>
       <c r="J18">
         <v>0.3562146708540352</v>
       </c>
       <c r="K18">
-        <v>37.91212138192108</v>
+        <v>7.582424276384215</v>
       </c>
       <c r="L18">
         <v>1.313577951543227</v>
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="G19">
-        <v>65.15833306312561</v>
+        <v>13.03166661262512</v>
       </c>
       <c r="H19">
         <v>0.5080053440822603</v>
       </c>
       <c r="I19">
-        <v>66.49999972184499</v>
+        <v>13.299999944369</v>
       </c>
       <c r="J19">
         <v>0.3775836883779877</v>
       </c>
       <c r="K19">
-        <v>71.05757587425636</v>
+        <v>14.21151517485127</v>
       </c>
       <c r="L19">
         <v>0.6250733618468204</v>
@@ -1218,19 +1218,19 @@
         </is>
       </c>
       <c r="G20">
-        <v>35.79166677594185</v>
+        <v>7.15833335518837</v>
       </c>
       <c r="H20">
         <v>0.4678927153909356</v>
       </c>
       <c r="I20">
-        <v>37.11666682207336</v>
+        <v>7.423333364414672</v>
       </c>
       <c r="J20">
         <v>0.351504799115868</v>
       </c>
       <c r="K20">
-        <v>39.79545466963089</v>
+        <v>7.959090933926178</v>
       </c>
       <c r="L20">
         <v>1.165973692406142</v>
@@ -1261,19 +1261,19 @@
         </is>
       </c>
       <c r="G21">
-        <v>45.79166614760955</v>
+        <v>9.15833322952191</v>
       </c>
       <c r="H21">
         <v>0.480559585103594</v>
       </c>
       <c r="I21">
-        <v>47.20833326876164</v>
+        <v>9.441666653752327</v>
       </c>
       <c r="J21">
         <v>0.3592526341639393</v>
       </c>
       <c r="K21">
-        <v>50.4795454968275</v>
+        <v>10.0959090993655</v>
       </c>
       <c r="L21">
         <v>0.9215958337071916</v>
@@ -1304,19 +1304,19 @@
         </is>
       </c>
       <c r="G22">
-        <v>55.02500001589457</v>
+        <v>11.00500000317891</v>
       </c>
       <c r="H22">
         <v>0.4977589079796341</v>
       </c>
       <c r="I22">
-        <v>56.54166665673256</v>
+        <v>11.30833333134651</v>
       </c>
       <c r="J22">
         <v>0.3806062995101777</v>
       </c>
       <c r="K22">
-        <v>60.42575739278938</v>
+        <v>12.08515147855788</v>
       </c>
       <c r="L22">
         <v>0.6910851323975321</v>
@@ -1347,19 +1347,19 @@
         </is>
       </c>
       <c r="G23">
-        <v>57.51666676998138</v>
+        <v>11.50333335399628</v>
       </c>
       <c r="H23">
         <v>0.5126727236467268</v>
       </c>
       <c r="I23">
-        <v>59.06666685144107</v>
+        <v>11.81333337028821</v>
       </c>
       <c r="J23">
         <v>0.3792170389023569</v>
       </c>
       <c r="K23">
-        <v>63.08409075664751</v>
+        <v>12.6168181513295</v>
       </c>
       <c r="L23">
         <v>0.6465209448607865</v>
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="G24">
-        <v>51.10000027467807</v>
+        <v>10.22000005493561</v>
       </c>
       <c r="H24">
         <v>0.470873842611464</v>
       </c>
       <c r="I24">
-        <v>52.42500023047129</v>
+        <v>10.48500004609426</v>
       </c>
       <c r="J24">
         <v>0.368668640471548</v>
       </c>
       <c r="K24">
-        <v>56.19545459295765</v>
+        <v>11.23909091859153</v>
       </c>
       <c r="L24">
         <v>0.8032103268448116</v>
@@ -1433,19 +1433,19 @@
         </is>
       </c>
       <c r="G25">
-        <v>47.225000020427</v>
+        <v>9.445000004085401</v>
       </c>
       <c r="H25">
         <v>0.4764087841858625</v>
       </c>
       <c r="I25">
-        <v>48.59999992698431</v>
+        <v>9.719999985396862</v>
       </c>
       <c r="J25">
         <v>0.3625048871437386</v>
       </c>
       <c r="K25">
-        <v>52.10681828562961</v>
+        <v>10.42136365712592</v>
       </c>
       <c r="L25">
         <v>0.8774315839110742</v>
@@ -1476,19 +1476,19 @@
         </is>
       </c>
       <c r="G26">
-        <v>23.34999989469846</v>
+        <v>4.669999978939692</v>
       </c>
       <c r="H26">
         <v>0.4493281811497384</v>
       </c>
       <c r="I26">
-        <v>24.68333329260349</v>
+        <v>4.936666658520698</v>
       </c>
       <c r="J26">
         <v>0.3514158321793197</v>
       </c>
       <c r="K26">
-        <v>26.39696976373141</v>
+        <v>5.279393952746283</v>
       </c>
       <c r="L26">
         <v>1.608815601512773</v>
@@ -1519,19 +1519,19 @@
         </is>
       </c>
       <c r="G27">
-        <v>38.08333310578018</v>
+        <v>7.616666621156037</v>
       </c>
       <c r="H27">
         <v>0.4616170179158758</v>
       </c>
       <c r="I27">
-        <v>39.45000016192595</v>
+        <v>7.89000003238519</v>
       </c>
       <c r="J27">
         <v>0.3587885849057497</v>
       </c>
       <c r="K27">
-        <v>42.34469719730656</v>
+        <v>8.468939439461312</v>
       </c>
       <c r="L27">
         <v>1.116180666980954</v>
@@ -1562,19 +1562,19 @@
         </is>
       </c>
       <c r="G28">
-        <v>46.5416669761762</v>
+        <v>9.308333395235241</v>
       </c>
       <c r="H28">
         <v>0.4852332742990242</v>
       </c>
       <c r="I28">
-        <v>47.7500002409021</v>
+        <v>9.55000004818042</v>
       </c>
       <c r="J28">
         <v>0.365813400058194</v>
       </c>
       <c r="K28">
-        <v>51.06666661031319</v>
+        <v>10.21333332206264</v>
       </c>
       <c r="L28">
         <v>0.9342369166011422</v>
@@ -1605,19 +1605,19 @@
         </is>
       </c>
       <c r="G29">
-        <v>39.43333304176728</v>
+        <v>7.886666608353456</v>
       </c>
       <c r="H29">
         <v>0.4734111117602822</v>
       </c>
       <c r="I29">
-        <v>40.59166640633097</v>
+        <v>8.118333281266192</v>
       </c>
       <c r="J29">
         <v>0.3692804446841389</v>
       </c>
       <c r="K29">
-        <v>43.41287843928193</v>
+        <v>8.682575687856385</v>
       </c>
       <c r="L29">
         <v>1.140345551070521</v>
@@ -1648,19 +1648,19 @@
         </is>
       </c>
       <c r="G30">
-        <v>39.43333304176728</v>
+        <v>7.886666608353456</v>
       </c>
       <c r="H30">
         <v>0.4734111117602822</v>
       </c>
       <c r="I30">
-        <v>40.59166640633097</v>
+        <v>8.118333281266192</v>
       </c>
       <c r="J30">
         <v>0.3692804446841389</v>
       </c>
       <c r="K30">
-        <v>43.41287843928193</v>
+        <v>8.682575687856385</v>
       </c>
       <c r="L30">
         <v>1.140345551070521</v>
@@ -1691,19 +1691,19 @@
         </is>
       </c>
       <c r="G31">
-        <v>45.5249998519818</v>
+        <v>9.10499997039636</v>
       </c>
       <c r="H31">
         <v>0.5101265210964341</v>
       </c>
       <c r="I31">
-        <v>47.17500000447035</v>
+        <v>9.435000000894069</v>
       </c>
       <c r="J31">
         <v>0.3645488637274491</v>
       </c>
       <c r="K31">
-        <v>50.5719698865644</v>
+        <v>10.11439397731288</v>
       </c>
       <c r="L31">
         <v>0.8591240447448425</v>
@@ -1734,19 +1734,19 @@
         </is>
       </c>
       <c r="G32">
-        <v>39.54166659464439</v>
+        <v>7.908333318928878</v>
       </c>
       <c r="H32">
         <v>0.4911014113390277</v>
       </c>
       <c r="I32">
-        <v>41.19166669653107</v>
+        <v>8.238333339306216</v>
       </c>
       <c r="J32">
         <v>0.3570032992287077</v>
       </c>
       <c r="K32">
-        <v>44.10227254955944</v>
+        <v>8.82045450991189</v>
       </c>
       <c r="L32">
         <v>1.012952255515962</v>
@@ -1777,19 +1777,19 @@
         </is>
       </c>
       <c r="G33">
-        <v>31.06666658911854</v>
+        <v>6.213333317823708</v>
       </c>
       <c r="H33">
         <v>0.4895647456263645</v>
       </c>
       <c r="I33">
-        <v>32.60000005364418</v>
+        <v>6.520000010728836</v>
       </c>
       <c r="J33">
         <v>0.359233370806067</v>
       </c>
       <c r="K33">
-        <v>34.91060626710003</v>
+        <v>6.982121253420006</v>
       </c>
       <c r="L33">
         <v>1.283241549381603</v>
@@ -1820,19 +1820,19 @@
         </is>
       </c>
       <c r="G34">
-        <v>28.5249998504296</v>
+        <v>5.704999970085919</v>
       </c>
       <c r="H34">
         <v>0.4906982496636498</v>
       </c>
       <c r="I34">
-        <v>30.05000011933347</v>
+        <v>6.010000023866693</v>
       </c>
       <c r="J34">
         <v>0.3601408343774598</v>
       </c>
       <c r="K34">
-        <v>32.13409108214194</v>
+        <v>6.426818216428386</v>
       </c>
       <c r="L34">
         <v>1.373948511329177</v>
@@ -1863,19 +1863,19 @@
         </is>
       </c>
       <c r="G35">
-        <v>53.80000025033951</v>
+        <v>10.7600000500679</v>
       </c>
       <c r="H35">
         <v>0.5162431109790969</v>
       </c>
       <c r="I35">
-        <v>55.48333324988683</v>
+        <v>11.09666664997737</v>
       </c>
       <c r="J35">
         <v>0.3644630008026101</v>
       </c>
       <c r="K35">
-        <v>59.33712099537705</v>
+        <v>11.86742419907541</v>
       </c>
       <c r="L35">
         <v>0.7191111043771689</v>
@@ -1906,19 +1906,19 @@
         </is>
       </c>
       <c r="G36">
-        <v>32.68333361794552</v>
+        <v>6.536666723589103</v>
       </c>
       <c r="H36">
         <v>0.4835703446751472</v>
       </c>
       <c r="I36">
-        <v>34.1583332112059</v>
+        <v>6.83166664224118</v>
       </c>
       <c r="J36">
         <v>0.3489767282759508</v>
       </c>
       <c r="K36">
-        <v>36.54015133981452</v>
+        <v>7.308030267962904</v>
       </c>
       <c r="L36">
         <v>1.332583995725258</v>
@@ -1949,19 +1949,19 @@
         </is>
       </c>
       <c r="G37">
-        <v>26.44166641123593</v>
+        <v>5.288333282247185</v>
       </c>
       <c r="H37">
         <v>0.4519095381812321</v>
       </c>
       <c r="I37">
-        <v>27.80833350867033</v>
+        <v>5.561666701734066</v>
       </c>
       <c r="J37">
         <v>0.3460390740836182</v>
       </c>
       <c r="K37">
-        <v>29.7318183220923</v>
+        <v>5.946363664418459</v>
       </c>
       <c r="L37">
         <v>1.513328788737081</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="G38">
-        <v>44.73333339144786</v>
+        <v>8.946666678289573</v>
       </c>
       <c r="H38">
         <v>0.4905920129791502</v>
       </c>
       <c r="I38">
-        <v>46.27500002582868</v>
+        <v>9.255000005165735</v>
       </c>
       <c r="J38">
         <v>0.3600058876753761</v>
       </c>
       <c r="K38">
-        <v>49.5151514372873</v>
+        <v>9.903030287457462</v>
       </c>
       <c r="L38">
         <v>0.9325577884823281</v>
@@ -2035,19 +2035,19 @@
         </is>
       </c>
       <c r="G39">
-        <v>29.60833342870076</v>
+        <v>5.921666685740153</v>
       </c>
       <c r="H39">
         <v>0.4609997843887038</v>
       </c>
       <c r="I39">
-        <v>31.01666642383983</v>
+        <v>6.203333284767965</v>
       </c>
       <c r="J39">
         <v>0.3580715806893535</v>
       </c>
       <c r="K39">
-        <v>33.11893920645569</v>
+        <v>6.623787841291138</v>
       </c>
       <c r="L39">
         <v>1.413183464003717</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="G40">
-        <v>33.79999973531812</v>
+        <v>6.759999947063625</v>
       </c>
       <c r="H40">
         <v>0.4522475261894901</v>
       </c>
       <c r="I40">
-        <v>35.11666671279818</v>
+        <v>7.023333342559636</v>
       </c>
       <c r="J40">
         <v>0.3559708235734882</v>
       </c>
       <c r="K40">
-        <v>37.61212131228636</v>
+        <v>7.522424262457273</v>
       </c>
       <c r="L40">
         <v>1.23481114746643</v>
@@ -2121,19 +2121,19 @@
         </is>
       </c>
       <c r="G41">
-        <v>45.7416666423281</v>
+        <v>9.14833332846562</v>
       </c>
       <c r="H41">
         <v>0.4809350960847564</v>
       </c>
       <c r="I41">
-        <v>46.99166673825433</v>
+        <v>9.398333347650866</v>
       </c>
       <c r="J41">
         <v>0.3787497435026809</v>
       </c>
       <c r="K41">
-        <v>50.25303021002787</v>
+        <v>10.05060604200557</v>
       </c>
       <c r="L41">
         <v>0.9412569258110211</v>
@@ -2164,19 +2164,19 @@
         </is>
       </c>
       <c r="G42">
-        <v>41.50000008288771</v>
+        <v>8.300000016577542</v>
       </c>
       <c r="H42">
         <v>0.4685230752638743</v>
       </c>
       <c r="I42">
-        <v>42.86666694780191</v>
+        <v>8.573333389560382</v>
       </c>
       <c r="J42">
         <v>0.364739177358561</v>
       </c>
       <c r="K42">
-        <v>45.89924275398141</v>
+        <v>9.179848550796283</v>
       </c>
       <c r="L42">
         <v>1.017658504663952</v>
@@ -2207,19 +2207,19 @@
         </is>
       </c>
       <c r="G43">
-        <v>64.40833322207133</v>
+        <v>12.88166664441427</v>
       </c>
       <c r="H43">
         <v>0.5140863879591824</v>
       </c>
       <c r="I43">
-        <v>65.79166674613953</v>
+        <v>13.15833334922791</v>
       </c>
       <c r="J43">
         <v>0.3790522007855041</v>
       </c>
       <c r="K43">
-        <v>70.28106061978774</v>
+        <v>14.05621212395755</v>
       </c>
       <c r="L43">
         <v>0.6406453960758755</v>
@@ -2250,19 +2250,19 @@
         </is>
       </c>
       <c r="G44">
-        <v>56.10000030199686</v>
+        <v>11.22000006039937</v>
       </c>
       <c r="H44">
         <v>0.4770641950137755</v>
       </c>
       <c r="I44">
-        <v>57.44999992847443</v>
+        <v>11.48999998569489</v>
       </c>
       <c r="J44">
         <v>0.3638814665961179</v>
       </c>
       <c r="K44">
-        <v>61.53787852597959</v>
+        <v>12.30757570519592</v>
       </c>
       <c r="L44">
         <v>0.7054708482312809</v>
@@ -2293,19 +2293,19 @@
         </is>
       </c>
       <c r="G45">
-        <v>48.03333280825367</v>
+        <v>9.606666561650734</v>
       </c>
       <c r="H45">
         <v>0.4821249082935101</v>
       </c>
       <c r="I45">
-        <v>49.32499983503173</v>
+        <v>9.864999967006346</v>
       </c>
       <c r="J45">
         <v>0.3564095280431772</v>
       </c>
       <c r="K45">
-        <v>52.94393945553086</v>
+        <v>10.58878789110617</v>
       </c>
       <c r="L45">
         <v>0.8468210448674093</v>
@@ -2336,19 +2336,19 @@
         </is>
       </c>
       <c r="G46">
-        <v>52.39999994138877</v>
+        <v>10.47999998827775</v>
       </c>
       <c r="H46">
         <v>0.5048239861057863</v>
       </c>
       <c r="I46">
-        <v>54.00833329558373</v>
+        <v>10.80166665911675</v>
       </c>
       <c r="J46">
         <v>0.3587885341503193</v>
       </c>
       <c r="K46">
-        <v>57.78787912834774</v>
+        <v>11.55757582566955</v>
       </c>
       <c r="L46">
         <v>0.7586244901138292</v>
@@ -2379,19 +2379,19 @@
         </is>
       </c>
       <c r="G47">
-        <v>57.3166667620341</v>
+        <v>11.46333335240682</v>
       </c>
       <c r="H47">
         <v>0.5220685152237862</v>
       </c>
       <c r="I47">
-        <v>61.11666696270307</v>
+        <v>12.22333339254061</v>
       </c>
       <c r="J47">
         <v>0.4352282919947815</v>
       </c>
       <c r="K47">
-        <v>65.573484731443</v>
+        <v>13.1146969462886</v>
       </c>
       <c r="L47">
         <v>0.6045235320955842</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="G48">
-        <v>57.48333326975504</v>
+        <v>11.49666665395101</v>
       </c>
       <c r="H48">
         <v>0.5398881783508136</v>
       </c>
       <c r="I48">
-        <v>60.95833303531011</v>
+        <v>12.19166660706202</v>
       </c>
       <c r="J48">
         <v>0.3852757794609758</v>
       </c>
       <c r="K48">
-        <v>65.02651557416627</v>
+        <v>13.00530311483325</v>
       </c>
       <c r="L48">
         <v>0.7127282374121395</v>
@@ -2465,19 +2465,19 @@
         </is>
       </c>
       <c r="G49">
-        <v>50.30833348135153</v>
+        <v>10.06166669627031</v>
       </c>
       <c r="H49">
         <v>0.5204363969260142</v>
       </c>
       <c r="I49">
-        <v>54.00833329806725</v>
+        <v>10.80166665961345</v>
       </c>
       <c r="J49">
         <v>0.3945109896226142</v>
       </c>
       <c r="K49">
-        <v>58.11136342449622</v>
+        <v>11.62227268489924</v>
       </c>
       <c r="L49">
         <v>0.6580043442741328</v>
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="G50">
-        <v>47.19999990953753</v>
+        <v>9.439999981907507</v>
       </c>
       <c r="H50">
         <v>0.5395921692216401</v>
       </c>
       <c r="I50">
-        <v>50.22500044604143</v>
+        <v>10.04500008920829</v>
       </c>
       <c r="J50">
         <v>0.4083588124961767</v>
       </c>
       <c r="K50">
-        <v>53.67651546136899</v>
+        <v>10.7353030922738</v>
       </c>
       <c r="L50">
         <v>0.8086382000910084</v>
@@ -2551,19 +2551,19 @@
         </is>
       </c>
       <c r="G51">
-        <v>56.95833313465118</v>
+        <v>11.39166662693024</v>
       </c>
       <c r="H51">
         <v>0.5263210612830979</v>
       </c>
       <c r="I51">
-        <v>60.15000016490619</v>
+        <v>12.03000003298124</v>
       </c>
       <c r="J51">
         <v>0.4024058871408586</v>
       </c>
       <c r="K51">
-        <v>64.35681848092513</v>
+        <v>12.87136369618503</v>
       </c>
       <c r="L51">
         <v>0.6546717920093527</v>
@@ -2594,19 +2594,19 @@
         </is>
       </c>
       <c r="G52">
-        <v>40.84999983167896</v>
+        <v>8.169999966335793</v>
       </c>
       <c r="H52">
         <v>0.5080122487676456</v>
       </c>
       <c r="I52">
-        <v>44.24166673763345</v>
+        <v>8.84833334752669</v>
       </c>
       <c r="J52">
         <v>0.4154315062126158</v>
       </c>
       <c r="K52">
-        <v>47.7946970365998</v>
+        <v>9.55893940731996</v>
       </c>
       <c r="L52">
         <v>0.7948987950350607</v>
@@ -2637,19 +2637,19 @@
         </is>
       </c>
       <c r="G53">
-        <v>53.35833300153414</v>
+        <v>10.67166660030683</v>
       </c>
       <c r="H53">
         <v>0.5046519375670128</v>
       </c>
       <c r="I53">
-        <v>56.23333351810774</v>
+        <v>11.24666670362155</v>
       </c>
       <c r="J53">
         <v>0.4192254409899169</v>
       </c>
       <c r="K53">
-        <v>60.48333342689456</v>
+        <v>12.09666668537891</v>
       </c>
       <c r="L53">
         <v>0.6378566024680697</v>
@@ -2680,19 +2680,19 @@
         </is>
       </c>
       <c r="G54">
-        <v>43.19166672384988</v>
+        <v>8.638333344769976</v>
       </c>
       <c r="H54">
         <v>0.5072940288323551</v>
       </c>
       <c r="I54">
-        <v>46.35000003377597</v>
+        <v>9.270000006755193</v>
       </c>
       <c r="J54">
         <v>0.4564962537949267</v>
       </c>
       <c r="K54">
-        <v>50.0848485472979</v>
+        <v>10.01696970945958</v>
       </c>
       <c r="L54">
         <v>0.7395849858689316</v>
@@ -2723,19 +2723,19 @@
         </is>
       </c>
       <c r="G55">
-        <v>46.43333334630976</v>
+        <v>9.286666669261953</v>
       </c>
       <c r="H55">
         <v>0.5079097180902121</v>
       </c>
       <c r="I55">
-        <v>49.93333335965872</v>
+        <v>9.986666671931744</v>
       </c>
       <c r="J55">
         <v>0.446226424184536</v>
       </c>
       <c r="K55">
-        <v>53.89999987365621</v>
+        <v>10.77999997473124</v>
       </c>
       <c r="L55">
         <v>0.7072442789868568</v>
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="G56">
-        <v>42.01666688174009</v>
+        <v>8.403333376348019</v>
       </c>
       <c r="H56">
         <v>0.5061634174982731</v>
       </c>
       <c r="I56">
-        <v>45.35833320021629</v>
+        <v>9.07166664004326</v>
       </c>
       <c r="J56">
         <v>0.4470816141347995</v>
       </c>
       <c r="K56">
-        <v>48.99469715108474</v>
+        <v>9.798939430216949</v>
       </c>
       <c r="L56">
         <v>0.7587531970522949</v>
@@ -2809,19 +2809,19 @@
         </is>
       </c>
       <c r="G57">
-        <v>50.88333309690157</v>
+        <v>10.17666661938032</v>
       </c>
       <c r="H57">
         <v>0.5261033242226878</v>
       </c>
       <c r="I57">
-        <v>54.6416663567846</v>
+        <v>10.92833327135692</v>
       </c>
       <c r="J57">
         <v>0.4699881433435974</v>
       </c>
       <c r="K57">
-        <v>58.77348445581667</v>
+        <v>11.75469689116333</v>
       </c>
       <c r="L57">
         <v>0.6604610214384505</v>
@@ -2852,19 +2852,19 @@
         </is>
       </c>
       <c r="G58">
-        <v>53.24999978144964</v>
+        <v>10.64999995628993</v>
       </c>
       <c r="H58">
         <v>0.5239738573207151</v>
       </c>
       <c r="I58">
-        <v>56.97499973078569</v>
+        <v>11.39499994615714</v>
       </c>
       <c r="J58">
         <v>0.4707632103379422</v>
       </c>
       <c r="K58">
-        <v>61.18787865205245</v>
+        <v>12.23757573041049</v>
       </c>
       <c r="L58">
         <v>0.6422652982636582</v>
@@ -2895,19 +2895,19 @@
         </is>
       </c>
       <c r="G59">
-        <v>49.83333334575097</v>
+        <v>9.966666669150193</v>
       </c>
       <c r="H59">
         <v>0.5519221563006365</v>
       </c>
       <c r="I59">
-        <v>52.71666668945302</v>
+        <v>10.54333333789061</v>
       </c>
       <c r="J59">
         <v>0.4363039306606895</v>
       </c>
       <c r="K59">
-        <v>56.37878775686929</v>
+        <v>11.27575755137386</v>
       </c>
       <c r="L59">
         <v>0.7403714759375117</v>
@@ -2938,19 +2938,19 @@
         </is>
       </c>
       <c r="G60">
-        <v>45.70833330104749</v>
+        <v>9.141666660209497</v>
       </c>
       <c r="H60">
         <v>0.5314745481243655</v>
       </c>
       <c r="I60">
-        <v>48.58333351804564</v>
+        <v>9.716666703609128</v>
       </c>
       <c r="J60">
         <v>0.4325312386594927</v>
       </c>
       <c r="K60">
-        <v>52.1833334713892</v>
+        <v>10.43666669427784</v>
       </c>
       <c r="L60">
         <v>0.7532014503797555</v>
@@ -2981,19 +2981,19 @@
         </is>
       </c>
       <c r="G61">
-        <v>42.15833328167597</v>
+        <v>8.431666656335196</v>
       </c>
       <c r="H61">
         <v>0.5341595297409248</v>
       </c>
       <c r="I61">
-        <v>45.11666658613831</v>
+        <v>9.023333317227662</v>
       </c>
       <c r="J61">
         <v>0.4345894905285911</v>
       </c>
       <c r="K61">
-        <v>48.42575763163129</v>
+        <v>9.685151526326257</v>
       </c>
       <c r="L61">
         <v>0.8218109579085552</v>
@@ -3024,19 +3024,19 @@
         </is>
       </c>
       <c r="G62">
-        <v>42.10000015050173</v>
+        <v>8.420000030100345</v>
       </c>
       <c r="H62">
         <v>0.5030668979254848</v>
       </c>
       <c r="I62">
-        <v>45.10833299749841</v>
+        <v>9.021666599499682</v>
       </c>
       <c r="J62">
         <v>0.4126725283691149</v>
       </c>
       <c r="K62">
-        <v>48.6939394397266</v>
+        <v>9.738787887945319</v>
       </c>
       <c r="L62">
         <v>0.7580005358956973</v>
@@ -3067,19 +3067,19 @@
         </is>
       </c>
       <c r="G63">
-        <v>56.74999982118607</v>
+        <v>11.34999996423721</v>
       </c>
       <c r="H63">
         <v>0.6079335770799978</v>
       </c>
       <c r="I63">
-        <v>59.59999995430311</v>
+        <v>11.91999999086062</v>
       </c>
       <c r="J63">
         <v>0.4145195246818538</v>
       </c>
       <c r="K63">
-        <v>63.55833346735348</v>
+        <v>12.7116666934707</v>
       </c>
       <c r="L63">
         <v>0.7259476779484626</v>
@@ -3110,19 +3110,19 @@
         </is>
       </c>
       <c r="G64">
-        <v>51.80833322306474</v>
+        <v>10.36166664461295</v>
       </c>
       <c r="H64">
         <v>0.5306115470992117</v>
       </c>
       <c r="I64">
-        <v>55.01666657129924</v>
+        <v>11.00333331425985</v>
       </c>
       <c r="J64">
         <v>0.5057860114487648</v>
       </c>
       <c r="K64">
-        <v>58.85530293800614</v>
+        <v>11.77106058760123</v>
       </c>
       <c r="L64">
         <v>0.6879040573991944</v>
@@ -3153,19 +3153,19 @@
         </is>
       </c>
       <c r="G65">
-        <v>57.59166697661082</v>
+        <v>11.51833339532216</v>
       </c>
       <c r="H65">
         <v>0.6071163366361554</v>
       </c>
       <c r="I65">
-        <v>60.50833337008953</v>
+        <v>12.10166667401791</v>
       </c>
       <c r="J65">
         <v>0.4127482580365697</v>
       </c>
       <c r="K65">
-        <v>64.49242385409096</v>
+        <v>12.89848477081819</v>
       </c>
       <c r="L65">
         <v>0.7586217825516207</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="G66">
-        <v>52.08333322405815</v>
+        <v>10.41666664481163</v>
       </c>
       <c r="H66">
         <v>0.5363522447079027</v>
       </c>
       <c r="I66">
-        <v>55.25000008692344</v>
+        <v>11.05000001738469</v>
       </c>
       <c r="J66">
         <v>0.511567545525739</v>
       </c>
       <c r="K66">
-        <v>58.5749998959628</v>
+        <v>11.71499997919256</v>
       </c>
       <c r="L66">
         <v>0.7608566186315768</v>
@@ -3239,19 +3239,19 @@
         </is>
       </c>
       <c r="G67">
-        <v>31.50833318879207</v>
+        <v>6.301666637758414</v>
       </c>
       <c r="H67">
         <v>0.4313415748693049</v>
       </c>
       <c r="I67">
-        <v>34.40833333631357</v>
+        <v>6.881666667262713</v>
       </c>
       <c r="J67">
         <v>0.3685274924272014</v>
       </c>
       <c r="K67">
-        <v>36.8022729244196</v>
+        <v>7.360454584883921</v>
       </c>
       <c r="L67">
         <v>1.206746819047532</v>
@@ -3282,19 +3282,19 @@
         </is>
       </c>
       <c r="G68">
-        <v>32.09166659756253</v>
+        <v>6.418333319512506</v>
       </c>
       <c r="H68">
         <v>0.4272570775239392</v>
       </c>
       <c r="I68">
-        <v>34.97500004402051</v>
+        <v>6.995000008804102</v>
       </c>
       <c r="J68">
         <v>0.3773353034320417</v>
       </c>
       <c r="K68">
-        <v>37.45454562207063</v>
+        <v>7.490909124414126</v>
       </c>
       <c r="L68">
         <v>1.197344109812885</v>
@@ -3325,19 +3325,19 @@
         </is>
       </c>
       <c r="G69">
-        <v>35.85000008003166</v>
+        <v>7.17000001600633</v>
       </c>
       <c r="H69">
         <v>0.4416902723942555</v>
       </c>
       <c r="I69">
-        <v>38.7499999900659</v>
+        <v>7.749999998013179</v>
       </c>
       <c r="J69">
         <v>0.3905124816118564</v>
       </c>
       <c r="K69">
-        <v>41.45075738071606</v>
+        <v>8.29015147614321</v>
       </c>
       <c r="L69">
         <v>1.101749974381021</v>
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="G70">
-        <v>37.56666674961647</v>
+        <v>7.513333349923292</v>
       </c>
       <c r="H70">
         <v>0.4292516087447917</v>
       </c>
       <c r="I70">
-        <v>40.5166667525967</v>
+        <v>8.103333350519339</v>
       </c>
       <c r="J70">
         <v>0.3844910097708691</v>
       </c>
       <c r="K70">
-        <v>43.2893938605081</v>
+        <v>8.657878772101618</v>
       </c>
       <c r="L70">
         <v>1.058126492377698</v>
@@ -3411,19 +3411,19 @@
         </is>
       </c>
       <c r="G71">
-        <v>44.54999974183738</v>
+        <v>8.909999948367476</v>
       </c>
       <c r="H71">
         <v>0.4484695633491582</v>
       </c>
       <c r="I71">
-        <v>47.5500000740091</v>
+        <v>9.51000001480182</v>
       </c>
       <c r="J71">
         <v>0.3952583191689742</v>
       </c>
       <c r="K71">
-        <v>50.85757586811528</v>
+        <v>10.17151517362306</v>
       </c>
       <c r="L71">
         <v>0.8600732808184295</v>
@@ -3454,19 +3454,19 @@
         </is>
       </c>
       <c r="G72">
-        <v>44.98333317538102</v>
+        <v>8.996666635076204</v>
       </c>
       <c r="H72">
         <v>0.450216026956823</v>
       </c>
       <c r="I72">
-        <v>48.01666680568208</v>
+        <v>9.603333361136416</v>
       </c>
       <c r="J72">
         <v>0.3999826040029804</v>
       </c>
       <c r="K72">
-        <v>51.37272730560014</v>
+        <v>10.27454546112003</v>
       </c>
       <c r="L72">
         <v>0.8306041147152582</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="G73">
-        <v>46.60833352804184</v>
+        <v>9.321666705608369</v>
       </c>
       <c r="H73">
         <v>0.4480900855468334</v>
       </c>
       <c r="I73">
-        <v>49.67499972631534</v>
+        <v>9.934999945263067</v>
       </c>
       <c r="J73">
         <v>0.394686878054965</v>
       </c>
       <c r="K73">
-        <v>53.10681801131278</v>
+        <v>10.62136360226256</v>
       </c>
       <c r="L73">
         <v>0.7774804304908557</v>
@@ -3540,19 +3540,19 @@
         </is>
       </c>
       <c r="G74">
-        <v>49.59166655441126</v>
+        <v>9.91833331088225</v>
       </c>
       <c r="H74">
         <v>0.4653029831506756</v>
       </c>
       <c r="I74">
-        <v>52.6833336253961</v>
+        <v>10.53666672507922</v>
       </c>
       <c r="J74">
         <v>0.3905835884353381</v>
       </c>
       <c r="K74">
-        <v>56.38333348523487</v>
+        <v>11.27666669704697</v>
       </c>
       <c r="L74">
         <v>0.7282350888670079</v>
@@ -3583,19 +3583,19 @@
         </is>
       </c>
       <c r="G75">
-        <v>51.55833334724108</v>
+        <v>10.31166666944822</v>
       </c>
       <c r="H75">
         <v>0.4631789461140867</v>
       </c>
       <c r="I75">
-        <v>54.7249999170502</v>
+        <v>10.94499998341004</v>
       </c>
       <c r="J75">
         <v>0.3908057154299299</v>
       </c>
       <c r="K75">
-        <v>58.49166664571473</v>
+        <v>11.69833332914295</v>
       </c>
       <c r="L75">
         <v>0.6848154191721915</v>
@@ -3626,19 +3626,19 @@
         </is>
       </c>
       <c r="G76">
-        <v>53.81666681170464</v>
+        <v>10.76333336234093</v>
       </c>
       <c r="H76">
         <v>0.4735211398390779</v>
       </c>
       <c r="I76">
-        <v>57.07499993344148</v>
+        <v>11.4149999866883</v>
       </c>
       <c r="J76">
         <v>0.3974046832033069</v>
       </c>
       <c r="K76">
-        <v>60.94772733702804</v>
+        <v>12.18954546740561</v>
       </c>
       <c r="L76">
         <v>0.663884178962727</v>
@@ -3669,19 +3669,19 @@
         </is>
       </c>
       <c r="G77">
-        <v>47.2083331917723</v>
+        <v>9.441666638354461</v>
       </c>
       <c r="H77">
         <v>0.5030462678686273</v>
       </c>
       <c r="I77">
-        <v>48.05833318425963</v>
+        <v>9.611666636851927</v>
       </c>
       <c r="J77">
         <v>0.3440264468932876</v>
       </c>
       <c r="K77">
-        <v>51.00984832915393</v>
+        <v>10.20196966583079</v>
       </c>
       <c r="L77">
         <v>0.8764925532450586</v>
@@ -3712,19 +3712,19 @@
         </is>
       </c>
       <c r="G78">
-        <v>30.88333327323198</v>
+        <v>6.176666654646397</v>
       </c>
       <c r="H78">
         <v>0.4803210755295847</v>
       </c>
       <c r="I78">
-        <v>31.58333323989064</v>
+        <v>6.316666647978127</v>
       </c>
       <c r="J78">
         <v>0.3503470524450201</v>
       </c>
       <c r="K78">
-        <v>33.32575738607821</v>
+        <v>6.665151477215642</v>
       </c>
       <c r="L78">
         <v>1.366378664237201</v>
@@ -3755,19 +3755,19 @@
         </is>
       </c>
       <c r="G79">
-        <v>42.87499988824129</v>
+        <v>8.574999977648258</v>
       </c>
       <c r="H79">
         <v>0.4701876266752266</v>
       </c>
       <c r="I79">
-        <v>44.06666663382202</v>
+        <v>8.813333326764404</v>
       </c>
       <c r="J79">
         <v>0.3701820456044522</v>
       </c>
       <c r="K79">
-        <v>47.11363619247057</v>
+        <v>9.422727238494112</v>
       </c>
       <c r="L79">
         <v>1.038831318037652</v>
